--- a/server/zone-template/Zone_Template.xlsx
+++ b/server/zone-template/Zone_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\wi-backend\server\zone-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="179">
   <si>
     <t>id</t>
   </si>
@@ -38,98 +38,536 @@
     <t>zone_pattern</t>
   </si>
   <si>
-    <t>basement</t>
-  </si>
-  <si>
     <t>zone_background</t>
   </si>
   <si>
     <t>zone_foreground</t>
   </si>
   <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>zone_ex_1</t>
-  </si>
-  <si>
-    <t>temp_ex_1</t>
-  </si>
-  <si>
-    <t>temp_ex_2</t>
-  </si>
-  <si>
-    <t>zone_ex_2</t>
-  </si>
-  <si>
-    <t>temp_ex_3</t>
-  </si>
-  <si>
-    <t>zone_ex_3</t>
-  </si>
-  <si>
-    <t>zone_ex_4</t>
-  </si>
-  <si>
-    <t>zone_ex_5</t>
-  </si>
-  <si>
-    <t>zone_ex_6</t>
-  </si>
-  <si>
-    <t>zone_ex_7</t>
-  </si>
-  <si>
-    <t>zone_ex_8</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>violet</t>
-  </si>
-  <si>
-    <t>grown</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>cyan</t>
-  </si>
-  <si>
-    <t>chert</t>
-  </si>
-  <si>
-    <t>dolomite</t>
-  </si>
-  <si>
-    <t>shale</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>siltstone</t>
-  </si>
-  <si>
-    <t>limestone</t>
+    <t>Aegirine</t>
+  </si>
+  <si>
+    <t>#006400</t>
+  </si>
+  <si>
+    <t>#000000</t>
+  </si>
+  <si>
+    <t>plus</t>
+  </si>
+  <si>
+    <t>Albite</t>
+  </si>
+  <si>
+    <t>#DC143C</t>
+  </si>
+  <si>
+    <t>croix</t>
+  </si>
+  <si>
+    <t>Almandine</t>
+  </si>
+  <si>
+    <t>#A52A2A</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alunite </t>
+  </si>
+  <si>
+    <t>#FF1493</t>
+  </si>
+  <si>
+    <t>damier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analcite </t>
+  </si>
+  <si>
+    <t>#FFB6C1</t>
+  </si>
+  <si>
+    <t>triangle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anatase </t>
+  </si>
+  <si>
+    <t>#CD853F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andesine </t>
+  </si>
+  <si>
+    <t>#F4A460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andradite </t>
+  </si>
+  <si>
+    <t>#000080</t>
+  </si>
+  <si>
+    <t>lozange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anhydrite </t>
+  </si>
+  <si>
+    <t>#9400D3</t>
+  </si>
+  <si>
+    <t>arrow_haut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankerite </t>
+  </si>
+  <si>
+    <t>#483D8B</t>
+  </si>
+  <si>
+    <t>brick_incl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anorthite </t>
+  </si>
+  <si>
+    <t>#FAFAD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anorthodase </t>
+  </si>
+  <si>
+    <t>#BA55D3</t>
+  </si>
+  <si>
+    <t>Augite</t>
+  </si>
+  <si>
+    <t>#556B2F</t>
+  </si>
+  <si>
+    <t>Baryte</t>
+  </si>
+  <si>
+    <t>#90EE90</t>
+  </si>
+  <si>
+    <t>Biotite</t>
+  </si>
+  <si>
+    <t>#FA8072</t>
+  </si>
+  <si>
+    <t>point_gras</t>
+  </si>
+  <si>
+    <t>Biotite-Mica</t>
+  </si>
+  <si>
+    <t>Bischofite</t>
+  </si>
+  <si>
+    <t>#FFDAB9</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>Bituminous coal</t>
+  </si>
+  <si>
+    <t>#8B4513</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Boehmite</t>
+  </si>
+  <si>
+    <t>#DDA0DD</t>
+  </si>
+  <si>
+    <t>rond</t>
+  </si>
+  <si>
+    <t>Bound water</t>
+  </si>
+  <si>
+    <t>#FFA500</t>
+  </si>
+  <si>
+    <t>Breccia</t>
+  </si>
+  <si>
+    <t>#00FF00</t>
+  </si>
+  <si>
+    <t>Gravel_outline</t>
+  </si>
+  <si>
+    <t>Bytownite</t>
+  </si>
+  <si>
+    <t>#C71585</t>
+  </si>
+  <si>
+    <t>Calcite</t>
+  </si>
+  <si>
+    <t>#87CEEB</t>
+  </si>
+  <si>
+    <t>brick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbonate-apatite </t>
+  </si>
+  <si>
+    <t>#40E0D0</t>
+  </si>
+  <si>
+    <t>square_plein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carnallite </t>
+  </si>
+  <si>
+    <t>#D8BFD8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celestite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chalcophyrite </t>
+  </si>
+  <si>
+    <t>#D2B48C</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>#808000</t>
+  </si>
+  <si>
+    <t>trait_l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinochlore </t>
+  </si>
+  <si>
+    <t>trait_rapproches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conglomerate </t>
+  </si>
+  <si>
+    <t>Cristobalite</t>
+  </si>
+  <si>
+    <t>#F0E68C</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBOS.Chert </t>
+  </si>
+  <si>
+    <t>#FFFAF0</t>
+  </si>
+  <si>
+    <t>#FF6347</t>
+  </si>
+  <si>
+    <t>triangle_plein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBOS.Clay </t>
+  </si>
+  <si>
+    <t>#48D1CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBOS_Conglomerate </t>
+  </si>
+  <si>
+    <t>#CD5C5C</t>
+  </si>
+  <si>
+    <t>Perforated_joint_outline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBOS.Dolomite </t>
+  </si>
+  <si>
+    <t>#1E90FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBOS_lgneous </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBOS_Metamorphic </t>
+  </si>
+  <si>
+    <t>#228B22</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBOS.SandStone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBOS.Shale </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBOS.Silt </t>
+  </si>
+  <si>
+    <t>#FFFFF0</t>
+  </si>
+  <si>
+    <t>#800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBOS.Volcanic </t>
+  </si>
+  <si>
+    <t>arrow_bas</t>
+  </si>
+  <si>
+    <t>Diaspore</t>
+  </si>
+  <si>
+    <t>Diopside</t>
+  </si>
+  <si>
+    <t>#98FB98</t>
+  </si>
+  <si>
+    <t>Dolomite</t>
+  </si>
+  <si>
+    <t>#4682B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dravite </t>
+  </si>
+  <si>
+    <t>#778899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epsomite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extrusive-volcanic </t>
+  </si>
+  <si>
+    <t>croisillon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fayalite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feldspar </t>
+  </si>
+  <si>
+    <t>Fluorapatite</t>
+  </si>
+  <si>
+    <t>#008B8B</t>
+  </si>
+  <si>
+    <t>Forsterite</t>
+  </si>
+  <si>
+    <t>#8FBC8F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galena </t>
+  </si>
+  <si>
+    <t xml:space="preserve">General metamorphic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gibbsite </t>
+  </si>
+  <si>
+    <t>#FFFFE0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glauberite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goethite </t>
+  </si>
+  <si>
+    <t>#F5DEB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gravel </t>
+  </si>
+  <si>
+    <t>Opened_perforation</t>
+  </si>
+  <si>
+    <t>Grossular</t>
+  </si>
+  <si>
+    <t>Haematite</t>
+  </si>
+  <si>
+    <t>#A0522D</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>Halite</t>
+  </si>
+  <si>
+    <t>#9370DB</t>
+  </si>
+  <si>
+    <t>letter_l</t>
+  </si>
+  <si>
+    <t>Heulandite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrocarbon flushed </t>
+  </si>
+  <si>
+    <t>#FFFF00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrocarbon residual </t>
+  </si>
+  <si>
+    <t>zebra_long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydroxyapatite </t>
+  </si>
+  <si>
+    <t>#5F9EA0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypersthene </t>
+  </si>
+  <si>
+    <t>#9932CC</t>
+  </si>
+  <si>
+    <t>Illite</t>
+  </si>
+  <si>
+    <t>#2F4F4F</t>
+  </si>
+  <si>
+    <t>intrusive- plutonic</t>
+  </si>
+  <si>
+    <t>isolated porosity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kainite </t>
+  </si>
+  <si>
+    <t>#D3D3D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaolinite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K-Feldspar </t>
+  </si>
+  <si>
+    <t>#FF69B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kieserite </t>
+  </si>
+  <si>
+    <t>#DAA520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Langbeinite </t>
+  </si>
+  <si>
+    <t>#FF7F50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laumonite </t>
+  </si>
+  <si>
+    <t>#DEB887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnesite </t>
+  </si>
+  <si>
+    <t>Marl</t>
+  </si>
+  <si>
+    <t>#00CED1</t>
+  </si>
+  <si>
+    <t>Mud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microdine </t>
+  </si>
+  <si>
+    <t>#FF00FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montmorillonite </t>
+  </si>
+  <si>
+    <t>#BDB76B</t>
+  </si>
+  <si>
+    <t>Natron</t>
+  </si>
+  <si>
+    <t>#DCDCDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepheline </t>
+  </si>
+  <si>
+    <t>Olivine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quartz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phlogopite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shale dispersed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shale laminated </t>
+  </si>
+  <si>
+    <t>Stinger</t>
+  </si>
+  <si>
+    <t>System Zone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,16 +575,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1F1F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -154,14 +632,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -440,203 +967,1900 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="9" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="63.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B29" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="42" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="82" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>4</v>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E7" r:id="rId6" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E8" r:id="rId7" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E9" r:id="rId8" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E10" r:id="rId9" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E11" r:id="rId10" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E12" r:id="rId11" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E13" r:id="rId12" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E14:E28" r:id="rId13" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E29" r:id="rId14" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E30:E32" r:id="rId15" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E43" r:id="rId16" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E44:E53" r:id="rId17" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="D31" r:id="rId18" display="https://www.w3schools.com/colors/color_tryit.asp?hex=00FF00"/>
+    <hyperlink ref="D22" r:id="rId19" display="https://www.w3schools.com/colors/color_tryit.asp?hex=00FF00"/>
+    <hyperlink ref="D2" r:id="rId20" display="https://www.w3schools.com/colors/color_tryit.asp?hex=006400"/>
+    <hyperlink ref="D49" r:id="rId21" display="https://www.w3schools.com/colors/color_tryit.asp?hex=006400"/>
+    <hyperlink ref="D51" r:id="rId22" display="https://www.w3schools.com/colors/color_tryit.asp?hex=008B8B"/>
+    <hyperlink ref="D52" r:id="rId23" display="https://www.w3schools.com/colors/color_tryit.asp?hex=8FBC8F"/>
+    <hyperlink ref="D53" r:id="rId24" display="https://www.w3schools.com/colors/color_tryit.asp?hex=CD5C5C"/>
+    <hyperlink ref="D3" r:id="rId25" display="https://www.w3schools.com/colors/color_tryit.asp?hex=DC143C"/>
+    <hyperlink ref="D4" r:id="rId26" display="https://www.w3schools.com/colors/color_tryit.asp?hex=A52A2A"/>
+    <hyperlink ref="D5" r:id="rId27" display="https://www.w3schools.com/colors/color_tryit.asp?hex=FF1493"/>
+    <hyperlink ref="D6" r:id="rId28" display="https://www.w3schools.com/colors/color_tryit.asp?hex=FFB6C1"/>
+    <hyperlink ref="D7" r:id="rId29" display="https://www.w3schools.com/colors/color_tryit.asp?hex=CD853F"/>
+    <hyperlink ref="D8" r:id="rId30" display="https://www.w3schools.com/colors/color_tryit.asp?hex=F4A460"/>
+    <hyperlink ref="D9" r:id="rId31" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000080"/>
+    <hyperlink ref="D10" r:id="rId32" display="https://www.w3schools.com/colors/color_tryit.asp?hex=9400D3"/>
+    <hyperlink ref="D11" r:id="rId33" display="https://www.w3schools.com/colors/color_tryit.asp?hex=483D8B"/>
+    <hyperlink ref="D12" r:id="rId34" display="https://www.w3schools.com/colors/color_tryit.asp?hex=FAFAD2"/>
+    <hyperlink ref="D13" r:id="rId35" display="https://www.w3schools.com/colors/color_tryit.asp?hex=BA55D3"/>
+    <hyperlink ref="D14" r:id="rId36" display="https://www.w3schools.com/colors/color_tryit.asp?hex=556B2F"/>
+    <hyperlink ref="D15" r:id="rId37" display="https://www.w3schools.com/colors/color_tryit.asp?hex=90EE90"/>
+    <hyperlink ref="D16" r:id="rId38" display="https://www.w3schools.com/colors/color_tryit.asp?hex=FA8072"/>
+    <hyperlink ref="D17" r:id="rId39" display="https://www.w3schools.com/colors/color_tryit.asp?hex=FA8072"/>
+    <hyperlink ref="D18" r:id="rId40" display="https://www.w3schools.com/colors/color_tryit.asp?hex=FFDAB9"/>
+    <hyperlink ref="D19" r:id="rId41" display="https://www.w3schools.com/colors/color_tryit.asp?hex=8B4513"/>
+    <hyperlink ref="D20" r:id="rId42" display="https://www.w3schools.com/colors/color_tryit.asp?hex=DDA0DD"/>
+    <hyperlink ref="D21" r:id="rId43" display="https://www.w3schools.com/colors/color_tryit.asp?hex=FFA500"/>
+    <hyperlink ref="D23" r:id="rId44" display="https://www.w3schools.com/colors/color_tryit.asp?hex=C71585"/>
+    <hyperlink ref="D24" r:id="rId45" display="https://www.w3schools.com/colors/color_tryit.asp?hex=87CEEB"/>
+    <hyperlink ref="D25" r:id="rId46" display="https://www.w3schools.com/colors/color_tryit.asp?hex=40E0D0"/>
+    <hyperlink ref="D26" r:id="rId47" display="https://www.w3schools.com/colors/color_tryit.asp?hex=D8BFD8"/>
+    <hyperlink ref="D27" r:id="rId48" display="https://www.w3schools.com/colors/color_tryit.asp?hex=D8BFD8"/>
+    <hyperlink ref="D28" r:id="rId49" display="https://www.w3schools.com/colors/color_tryit.asp?hex=D2B48C"/>
+    <hyperlink ref="D29" r:id="rId50" display="https://www.w3schools.com/colors/color_tryit.asp?hex=808000"/>
+    <hyperlink ref="D30" r:id="rId51" display="https://www.w3schools.com/colors/color_tryit.asp?hex=808000"/>
+    <hyperlink ref="D32" r:id="rId52" display="https://www.w3schools.com/colors/color_tryit.asp?hex=F0E68C"/>
+    <hyperlink ref="D86" r:id="rId53" display="https://www.w3schools.com/colors/color_tryit.asp?hex=00FF00"/>
+    <hyperlink ref="D59" r:id="rId54" display="https://www.w3schools.com/colors/color_tryit.asp?hex=00FF00"/>
+    <hyperlink ref="D58" r:id="rId55" display="https://www.w3schools.com/colors/color_tryit.asp?hex=00FF00"/>
+    <hyperlink ref="E34" r:id="rId56" display="https://www.w3schools.com/colors/color_tryit.asp?hex=48D1CC"/>
+    <hyperlink ref="D34" r:id="rId57" display="https://www.w3schools.com/colors/color_tryit.asp?hex=48D1CC"/>
+    <hyperlink ref="E36" r:id="rId58" display="https://www.w3schools.com/colors/color_tryit.asp?hex=1E90FF"/>
+    <hyperlink ref="D36" r:id="rId59" display="https://www.w3schools.com/colors/color_tryit.asp?hex=FFFAF0"/>
+    <hyperlink ref="E35" r:id="rId60" display="https://www.w3schools.com/colors/color_tryit.asp?hex=CD5C5C"/>
+    <hyperlink ref="D35" r:id="rId61" display="https://www.w3schools.com/colors/color_tryit.asp?hex=FFFAF0"/>
+    <hyperlink ref="E37" r:id="rId62" display="https://www.w3schools.com/colors/color_tryit.asp?hex=1E90FF"/>
+    <hyperlink ref="D37" r:id="rId63" display="https://www.w3schools.com/colors/color_tryit.asp?hex=FFFAF0"/>
+    <hyperlink ref="E38" r:id="rId64" display="https://www.w3schools.com/colors/color_tryit.asp?hex=228B22"/>
+    <hyperlink ref="D38" r:id="rId65" display="https://www.w3schools.com/colors/color_tryit.asp?hex=FFFAF0"/>
+    <hyperlink ref="E39" r:id="rId66" display="https://www.w3schools.com/colors/color_tryit.asp?hex=CD5C5C"/>
+    <hyperlink ref="D39" r:id="rId67" display="https://www.w3schools.com/colors/color_tryit.asp?hex=FFFAF0"/>
+    <hyperlink ref="E40" r:id="rId68" display="https://www.w3schools.com/colors/color_tryit.asp?hex=228B22"/>
+    <hyperlink ref="D40" r:id="rId69" display="https://www.w3schools.com/colors/color_tryit.asp?hex=FFFAF0"/>
+    <hyperlink ref="E41" r:id="rId70" display="https://www.w3schools.com/colors/color_tryit.asp?hex=800000"/>
+    <hyperlink ref="D41" r:id="rId71" display="https://www.w3schools.com/colors/color_tryit.asp?hex=FFFFF0"/>
+    <hyperlink ref="E42" r:id="rId72" display="https://www.w3schools.com/colors/color_tryit.asp?hex=800000"/>
+    <hyperlink ref="D42" r:id="rId73" display="https://www.w3schools.com/colors/color_tryit.asp?hex=FFFAF0"/>
+    <hyperlink ref="D43" r:id="rId74" display="https://www.w3schools.com/colors/color_tryit.asp?hex=D8BFD8"/>
+    <hyperlink ref="D44" r:id="rId75" display="https://www.w3schools.com/colors/color_tryit.asp?hex=98FB98"/>
+    <hyperlink ref="D45" r:id="rId76" display="https://www.w3schools.com/colors/color_tryit.asp?hex=4682B4"/>
+    <hyperlink ref="D46" r:id="rId77" display="https://www.w3schools.com/colors/color_tryit.asp?hex=778899"/>
+    <hyperlink ref="D47" r:id="rId78" display="https://www.w3schools.com/colors/color_tryit.asp?hex=BA55D3"/>
+    <hyperlink ref="E56" r:id="rId79" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E55" r:id="rId80" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E54" r:id="rId81" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E57" r:id="rId82" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E58" r:id="rId83" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E59" r:id="rId84" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E60" r:id="rId85" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E61" r:id="rId86" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E62" r:id="rId87" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E63" r:id="rId88" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E64" r:id="rId89" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E65" r:id="rId90" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E66" r:id="rId91" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E67" r:id="rId92" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E68" r:id="rId93" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E69" r:id="rId94" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E70" r:id="rId95" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E71" r:id="rId96" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E72" r:id="rId97" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E73" r:id="rId98" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E74" r:id="rId99" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E75" r:id="rId100" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E76" r:id="rId101" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E77" r:id="rId102" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E78" r:id="rId103" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E79" r:id="rId104" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E80" r:id="rId105" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E81" r:id="rId106" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="E82:E87" r:id="rId107" display="https://www.w3schools.com/colors/color_tryit.asp?hex=000000"/>
+    <hyperlink ref="D87" r:id="rId108" display="https://www.w3schools.com/colors/color_tryit.asp?hex=556B2F"/>
+    <hyperlink ref="D85" r:id="rId109" display="https://www.w3schools.com/colors/color_tryit.asp?hex=FFFF00"/>
+    <hyperlink ref="D84" r:id="rId110" display="https://www.w3schools.com/colors/color_tryit.asp?hex=FFFF00"/>
+    <hyperlink ref="D65" r:id="rId111" display="https://www.w3schools.com/colors/color_tryit.asp?hex=FFFF00"/>
+    <hyperlink ref="D64" r:id="rId112" display="https://www.w3schools.com/colors/color_tryit.asp?hex=FFFF00"/>
+    <hyperlink ref="E33" r:id="rId113" display="https://www.w3schools.com/colors/color_tryit.asp?hex=FF6347"/>
+    <hyperlink ref="D33" r:id="rId114" display="https://www.w3schools.com/colors/color_tryit.asp?hex=FFFAF0"/>
+    <hyperlink ref="D69" r:id="rId115" display="https://www.w3schools.com/colors/color_tryit.asp?hex=8FBC8F"/>
+    <hyperlink ref="D83" r:id="rId116" display="https://www.w3schools.com/colors/color_tryit.asp?hex=228B22"/>
+    <hyperlink ref="D82" r:id="rId117" display="https://www.w3schools.com/colors/color_tryit.asp?hex=556B2F"/>
+    <hyperlink ref="D81" r:id="rId118" display="https://www.w3schools.com/colors/color_tryit.asp?hex=DCDCDC"/>
+    <hyperlink ref="D80" r:id="rId119" display="https://www.w3schools.com/colors/color_tryit.asp?hex=BDB76B"/>
+    <hyperlink ref="D79" r:id="rId120" display="https://www.w3schools.com/colors/color_tryit.asp?hex=FF00FF"/>
+    <hyperlink ref="D78" r:id="rId121" display="https://www.w3schools.com/colors/color_tryit.asp?hex=00CED1"/>
+    <hyperlink ref="D77" r:id="rId122" display="https://www.w3schools.com/colors/color_tryit.asp?hex=2F4F4F"/>
+    <hyperlink ref="D76" r:id="rId123" display="https://www.w3schools.com/colors/color_tryit.asp?hex=DEB887"/>
+    <hyperlink ref="D75" r:id="rId124" display="https://www.w3schools.com/colors/color_tryit.asp?hex=FF7F50"/>
+    <hyperlink ref="D74" r:id="rId125" display="https://www.w3schools.com/colors/color_tryit.asp?hex=DAA520"/>
+    <hyperlink ref="D73" r:id="rId126" display="https://www.w3schools.com/colors/color_tryit.asp?hex=FF69B4"/>
+    <hyperlink ref="D72" r:id="rId127" display="https://www.w3schools.com/colors/color_tryit.asp?hex=F0E68C"/>
+    <hyperlink ref="D71" r:id="rId128" display="https://www.w3schools.com/colors/color_tryit.asp?hex=D3D3D3"/>
+    <hyperlink ref="D70" r:id="rId129" display="https://www.w3schools.com/colors/color_tryit.asp?hex=9370DB"/>
+    <hyperlink ref="D68" r:id="rId130" display="https://www.w3schools.com/colors/color_tryit.asp?hex=2F4F4F"/>
+    <hyperlink ref="D67" r:id="rId131" display="https://www.w3schools.com/colors/color_tryit.asp?hex=9932CC"/>
+    <hyperlink ref="D66" r:id="rId132" display="https://www.w3schools.com/colors/color_tryit.asp?hex=5F9EA0"/>
+    <hyperlink ref="D63" r:id="rId133" display="https://www.w3schools.com/colors/color_tryit.asp?hex=CD853F"/>
+    <hyperlink ref="D62" r:id="rId134" display="https://www.w3schools.com/colors/color_tryit.asp?hex=9370DB"/>
+    <hyperlink ref="D61" r:id="rId135" display="https://www.w3schools.com/colors/color_tryit.asp?hex=A0522D"/>
+    <hyperlink ref="D60" r:id="rId136" display="https://www.w3schools.com/colors/color_tryit.asp?hex=CD853F"/>
+    <hyperlink ref="D54" r:id="rId137" display="https://www.w3schools.com/colors/color_tryit.asp?hex=FFA500"/>
+    <hyperlink ref="D55" r:id="rId138" display="https://www.w3schools.com/colors/color_tryit.asp?hex=FFFFE0"/>
+    <hyperlink ref="D56" r:id="rId139" display="https://www.w3schools.com/colors/color_tryit.asp?hex=D2B48C"/>
+    <hyperlink ref="D57" r:id="rId140" display="https://www.w3schools.com/colors/color_tryit.asp?hex=F5DEB3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId141"/>
 </worksheet>
 </file>
--- a/server/zone-template/Zone_Template.xlsx
+++ b/server/zone-template/Zone_Template.xlsx
@@ -560,7 +560,7 @@
     <t>Stinger</t>
   </si>
   <si>
-    <t>System Zone</t>
+    <t>Default</t>
   </si>
 </sst>
 </file>
@@ -969,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/server/zone-template/Zone_Template.xlsx
+++ b/server/zone-template/Zone_Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\wi-backend\server\zone-template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuongh\AppData\Roaming\Skype\My Skype Received Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A40087EF-7F2C-4CCD-B453-1568D3AA0ADB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zone_template" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="193">
   <si>
     <t>id</t>
   </si>
@@ -74,72 +75,45 @@
     <t>Gas</t>
   </si>
   <si>
-    <t xml:space="preserve">Alunite </t>
-  </si>
-  <si>
     <t>#FF1493</t>
   </si>
   <si>
     <t>damier</t>
   </si>
   <si>
-    <t xml:space="preserve">Analcite </t>
-  </si>
-  <si>
     <t>#FFB6C1</t>
   </si>
   <si>
     <t>triangle</t>
   </si>
   <si>
-    <t xml:space="preserve">Anatase </t>
-  </si>
-  <si>
     <t>#CD853F</t>
   </si>
   <si>
-    <t xml:space="preserve">Andesine </t>
-  </si>
-  <si>
     <t>#F4A460</t>
   </si>
   <si>
-    <t xml:space="preserve">Andradite </t>
-  </si>
-  <si>
     <t>#000080</t>
   </si>
   <si>
     <t>lozange</t>
   </si>
   <si>
-    <t xml:space="preserve">Anhydrite </t>
-  </si>
-  <si>
     <t>#9400D3</t>
   </si>
   <si>
     <t>arrow_haut</t>
   </si>
   <si>
-    <t xml:space="preserve">Ankerite </t>
-  </si>
-  <si>
     <t>#483D8B</t>
   </si>
   <si>
     <t>brick_incl</t>
   </si>
   <si>
-    <t xml:space="preserve">Anorthite </t>
-  </si>
-  <si>
     <t>#FAFAD2</t>
   </si>
   <si>
-    <t xml:space="preserve">Anorthodase </t>
-  </si>
-  <si>
     <t>#BA55D3</t>
   </si>
   <si>
@@ -221,27 +195,15 @@
     <t>brick</t>
   </si>
   <si>
-    <t xml:space="preserve">Carbonate-apatite </t>
-  </si>
-  <si>
     <t>#40E0D0</t>
   </si>
   <si>
     <t>square_plein</t>
   </si>
   <si>
-    <t xml:space="preserve">Carnallite </t>
-  </si>
-  <si>
     <t>#D8BFD8</t>
   </si>
   <si>
-    <t xml:space="preserve">Celestite </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chalcophyrite </t>
-  </si>
-  <si>
     <t>#D2B48C</t>
   </si>
   <si>
@@ -254,9 +216,6 @@
     <t>trait_l</t>
   </si>
   <si>
-    <t xml:space="preserve">Clinochlore </t>
-  </si>
-  <si>
     <t>trait_rapproches</t>
   </si>
   <si>
@@ -269,9 +228,6 @@
     <t>point</t>
   </si>
   <si>
-    <t xml:space="preserve">DBOS.Chert </t>
-  </si>
-  <si>
     <t>#FFFAF0</t>
   </si>
   <si>
@@ -281,57 +237,30 @@
     <t>triangle_plein</t>
   </si>
   <si>
-    <t xml:space="preserve">DBOS.Clay </t>
-  </si>
-  <si>
     <t>#48D1CC</t>
   </si>
   <si>
-    <t xml:space="preserve">DBOS_Conglomerate </t>
-  </si>
-  <si>
     <t>#CD5C5C</t>
   </si>
   <si>
     <t>Perforated_joint_outline</t>
   </si>
   <si>
-    <t xml:space="preserve">DBOS.Dolomite </t>
-  </si>
-  <si>
     <t>#1E90FF</t>
   </si>
   <si>
-    <t xml:space="preserve">DBOS_lgneous </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBOS_Metamorphic </t>
-  </si>
-  <si>
     <t>#228B22</t>
   </si>
   <si>
     <t>Cement</t>
   </si>
   <si>
-    <t xml:space="preserve">DBOS.SandStone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBOS.Shale </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBOS.Silt </t>
-  </si>
-  <si>
     <t>#FFFFF0</t>
   </si>
   <si>
     <t>#800000</t>
   </si>
   <si>
-    <t xml:space="preserve">DBOS.Volcanic </t>
-  </si>
-  <si>
     <t>arrow_bas</t>
   </si>
   <si>
@@ -350,21 +279,9 @@
     <t>#4682B4</t>
   </si>
   <si>
-    <t xml:space="preserve">Dravite </t>
-  </si>
-  <si>
     <t>#778899</t>
   </si>
   <si>
-    <t xml:space="preserve">Epsomite </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extrusive-volcanic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fayalite </t>
-  </si>
-  <si>
     <t>Fluorapatite</t>
   </si>
   <si>
@@ -377,30 +294,12 @@
     <t>#8FBC8F</t>
   </si>
   <si>
-    <t xml:space="preserve">Galena </t>
-  </si>
-  <si>
-    <t xml:space="preserve">General metamorphic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gibbsite </t>
-  </si>
-  <si>
     <t>#FFFFE0</t>
   </si>
   <si>
-    <t xml:space="preserve">Glauberite </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goethite </t>
-  </si>
-  <si>
     <t>#F5DEB3</t>
   </si>
   <si>
-    <t xml:space="preserve">Gravel </t>
-  </si>
-  <si>
     <t>Grossular</t>
   </si>
   <si>
@@ -425,24 +324,12 @@
     <t>Heulandite</t>
   </si>
   <si>
-    <t xml:space="preserve">Hydrocarbon flushed </t>
-  </si>
-  <si>
     <t>#FFFF00</t>
   </si>
   <si>
-    <t xml:space="preserve">Hydrocarbon residual </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydroxyapatite </t>
-  </si>
-  <si>
     <t>#5F9EA0</t>
   </si>
   <si>
-    <t xml:space="preserve">Hypersthene </t>
-  </si>
-  <si>
     <t>#9932CC</t>
   </si>
   <si>
@@ -458,57 +345,30 @@
     <t>isolated porosity</t>
   </si>
   <si>
-    <t xml:space="preserve">Kainite </t>
-  </si>
-  <si>
     <t>#D3D3D3</t>
   </si>
   <si>
-    <t xml:space="preserve">Kaolinite </t>
-  </si>
-  <si>
-    <t xml:space="preserve">K-Feldspar </t>
-  </si>
-  <si>
     <t>#FF69B4</t>
   </si>
   <si>
-    <t xml:space="preserve">Kieserite </t>
-  </si>
-  <si>
     <t>#DAA520</t>
   </si>
   <si>
-    <t xml:space="preserve">Langbeinite </t>
-  </si>
-  <si>
     <t>#FF7F50</t>
   </si>
   <si>
-    <t xml:space="preserve">Laumonite </t>
-  </si>
-  <si>
     <t>#DEB887</t>
   </si>
   <si>
-    <t xml:space="preserve">Magnesite </t>
-  </si>
-  <si>
     <t>Marl</t>
   </si>
   <si>
     <t>#00CED1</t>
   </si>
   <si>
-    <t xml:space="preserve">Microdine </t>
-  </si>
-  <si>
     <t>#FF00FF</t>
   </si>
   <si>
-    <t xml:space="preserve">Montmorillonite </t>
-  </si>
-  <si>
     <t>#BDB76B</t>
   </si>
   <si>
@@ -518,24 +378,9 @@
     <t>#DCDCDC</t>
   </si>
   <si>
-    <t xml:space="preserve">Nepheline </t>
-  </si>
-  <si>
     <t>Olivine</t>
   </si>
   <si>
-    <t xml:space="preserve">Quartz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phlogopite </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shale dispersed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shale laminated </t>
-  </si>
-  <si>
     <t>Default</t>
   </si>
   <si>
@@ -545,9 +390,6 @@
     <t>lozange_plein</t>
   </si>
   <si>
-    <t xml:space="preserve">Conglomerate1 </t>
-  </si>
-  <si>
     <t>General_metamorphic</t>
   </si>
   <si>
@@ -591,12 +433,183 @@
   </si>
   <si>
     <t>Arkose</t>
+  </si>
+  <si>
+    <t>Fayalite</t>
+  </si>
+  <si>
+    <t>Anhydrite</t>
+  </si>
+  <si>
+    <t>DBOS_Conglomerate</t>
+  </si>
+  <si>
+    <t>Dolomite6</t>
+  </si>
+  <si>
+    <t>Gravel2</t>
+  </si>
+  <si>
+    <t>Marl1</t>
+  </si>
+  <si>
+    <t>Chert2</t>
+  </si>
+  <si>
+    <t>Plus</t>
+  </si>
+  <si>
+    <t>Alunite</t>
+  </si>
+  <si>
+    <t>Analcite</t>
+  </si>
+  <si>
+    <t>Anatase</t>
+  </si>
+  <si>
+    <t>Andesine</t>
+  </si>
+  <si>
+    <t>Andradite</t>
+  </si>
+  <si>
+    <t>Ankerite</t>
+  </si>
+  <si>
+    <t>Anorthite</t>
+  </si>
+  <si>
+    <t>Anorthodase</t>
+  </si>
+  <si>
+    <t>Carbonate-apatite</t>
+  </si>
+  <si>
+    <t>Carnallite</t>
+  </si>
+  <si>
+    <t>Celestite</t>
+  </si>
+  <si>
+    <t>Chalcophyrite</t>
+  </si>
+  <si>
+    <t>Clinochlore</t>
+  </si>
+  <si>
+    <t>DBOS.Chert</t>
+  </si>
+  <si>
+    <t>DBOS.Clay</t>
+  </si>
+  <si>
+    <t>DBOS.Dolomite</t>
+  </si>
+  <si>
+    <t>DBOS_lgneous</t>
+  </si>
+  <si>
+    <t>DBOS_Metamorphic</t>
+  </si>
+  <si>
+    <t>DBOS.SandStone</t>
+  </si>
+  <si>
+    <t>DBOS.Shale</t>
+  </si>
+  <si>
+    <t>DBOS.Silt</t>
+  </si>
+  <si>
+    <t>DBOS.Volcanic</t>
+  </si>
+  <si>
+    <t>Dravite</t>
+  </si>
+  <si>
+    <t>Epsomite</t>
+  </si>
+  <si>
+    <t>Extrusive-volcanic</t>
+  </si>
+  <si>
+    <t>Galena</t>
+  </si>
+  <si>
+    <t>General metamorphic</t>
+  </si>
+  <si>
+    <t>Gibbsite</t>
+  </si>
+  <si>
+    <t>Glauberite</t>
+  </si>
+  <si>
+    <t>Goethite</t>
+  </si>
+  <si>
+    <t>Gravel</t>
+  </si>
+  <si>
+    <t>Hydrocarbon flushed</t>
+  </si>
+  <si>
+    <t>Hydrocarbon residual</t>
+  </si>
+  <si>
+    <t>Hydroxyapatite</t>
+  </si>
+  <si>
+    <t>Hypersthene</t>
+  </si>
+  <si>
+    <t>Kainite</t>
+  </si>
+  <si>
+    <t>Kaolinite</t>
+  </si>
+  <si>
+    <t>K-Feldspar</t>
+  </si>
+  <si>
+    <t>Kieserite</t>
+  </si>
+  <si>
+    <t>Langbeinite</t>
+  </si>
+  <si>
+    <t>Laumonite</t>
+  </si>
+  <si>
+    <t>Magnesite</t>
+  </si>
+  <si>
+    <t>Microdine</t>
+  </si>
+  <si>
+    <t>Montmorillonite</t>
+  </si>
+  <si>
+    <t>Nepheline</t>
+  </si>
+  <si>
+    <t>Quartz</t>
+  </si>
+  <si>
+    <t>Phlogopite</t>
+  </si>
+  <si>
+    <t>Shale dispersed</t>
+  </si>
+  <si>
+    <t>Shale laminated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -606,14 +619,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -621,14 +628,20 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
+      <color rgb="FF000000"/>
+      <name val="Arimo"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -639,7 +652,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -647,21 +660,119 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -941,24 +1052,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A91"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -974,18 +1085,18 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75">
+    <row r="2" spans="1:6" ht="16.5" thickBot="1">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -994,18 +1105,18 @@
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
+      <c r="F2" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1014,18 +1125,18 @@
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75">
+    <row r="4" spans="1:6" ht="16.5" thickBot="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1038,875 +1149,875 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75">
+    <row r="5" spans="1:6" ht="16.5" thickBot="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75">
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75">
+    </row>
+    <row r="7" spans="1:6" ht="16.5" thickBot="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>118</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
+      <c r="F7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>118</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75">
+    <row r="9" spans="1:6" ht="16.5" thickBot="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>118</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75">
+      <c r="F9" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickBot="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>118</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
+      <c r="F10" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" thickBot="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>118</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75">
+      <c r="F11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>35</v>
+        <v>118</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75">
+    <row r="13" spans="1:6" ht="16.5" thickBot="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>37</v>
+        <v>118</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75">
+    <row r="14" spans="1:6" ht="16.5" thickBot="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>39</v>
+        <v>118</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75">
+    <row r="15" spans="1:6" ht="16.5" thickBot="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>41</v>
+        <v>118</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75">
+      <c r="F15" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>43</v>
+        <v>118</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75">
+      <c r="F16" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" thickBot="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>46</v>
+        <v>118</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75">
+      <c r="F17" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>49</v>
+        <v>118</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75">
+      <c r="F18" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" thickBot="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>52</v>
+        <v>118</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75">
+      <c r="F19" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>55</v>
+        <v>118</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75">
+      <c r="F20" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" thickBot="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>57</v>
+        <v>118</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75">
+      <c r="F21" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" thickBot="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>60</v>
+        <v>118</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>62</v>
+        <v>118</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75">
+      <c r="F23" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickBot="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>65</v>
+        <v>118</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75">
+      <c r="F24" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" thickBot="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>68</v>
+        <v>118</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75">
+      <c r="F25" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickBot="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>70</v>
+        <v>118</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>154</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75">
+      <c r="F26" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" thickBot="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>71</v>
+        <v>118</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75">
+      <c r="F27" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" thickBot="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>73</v>
+        <v>118</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75">
+      <c r="F28" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" thickBot="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>76</v>
+        <v>118</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75">
+      <c r="F29" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" thickBot="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>171</v>
+        <v>118</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" ht="15.75">
+      <c r="F30" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="1" customFormat="1" ht="16.5" thickBot="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>78</v>
+        <v>118</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75">
+      <c r="F31" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" thickBot="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>81</v>
+        <v>118</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75">
+        <v>68</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" thickBot="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>85</v>
+        <v>118</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75">
+        <v>70</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" thickBot="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>87</v>
+        <v>118</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75">
+        <v>71</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" thickBot="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>90</v>
+        <v>118</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75">
+        <v>73</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" thickBot="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>92</v>
+        <v>118</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75">
+    <row r="37" spans="1:6" ht="16.5" thickBot="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>93</v>
+        <v>118</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75">
+        <v>74</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" thickBot="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>96</v>
+        <v>118</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75">
+        <v>71</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" thickBot="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>97</v>
+        <v>118</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75">
+        <v>74</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" thickBot="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>98</v>
+        <v>118</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75">
+    <row r="41" spans="1:6" ht="16.5" thickBot="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>101</v>
+        <v>118</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>165</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75">
+        <v>77</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" thickBot="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>103</v>
+        <v>118</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75">
+      <c r="F42" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" thickBot="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>104</v>
+        <v>118</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75">
+    <row r="44" spans="1:6" ht="16.5" thickBot="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>106</v>
+        <v>118</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75">
+      <c r="F44" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" thickBot="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>108</v>
+        <v>118</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75">
+      <c r="F45" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" thickBot="1">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>110</v>
+        <v>118</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75">
+      <c r="F46" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" thickBot="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75">
+    <row r="48" spans="1:6" ht="16.5" thickBot="1">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>112</v>
+        <v>118</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>7</v>
@@ -1914,869 +2025,4505 @@
       <c r="E48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75">
+    <row r="49" spans="1:6" ht="16.5" thickBot="1">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75">
+      <c r="F49" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" thickBot="1">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75">
+    <row r="51" spans="1:6" ht="16.5" thickBot="1">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75">
+      <c r="F51" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" thickBot="1">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="D52" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75">
+      <c r="F52" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" thickBot="1">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75">
+      <c r="F53" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16.5" thickBot="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75">
+      <c r="F54" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16.5" thickBot="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75">
+      <c r="F55" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" thickBot="1">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="F56" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" thickBot="1">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>175</v>
+        <v>118</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.75">
+      <c r="F57" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" thickBot="1">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75">
+    </row>
+    <row r="59" spans="1:6" ht="16.5" thickBot="1">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.75">
+      <c r="F59" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="16.5" thickBot="1">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>129</v>
+        <v>118</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75">
+      <c r="F60" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" thickBot="1">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>132</v>
+        <v>118</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75">
+      <c r="F61" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16.5" thickBot="1">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>133</v>
+        <v>118</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>175</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75">
+      <c r="F62" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" thickBot="1">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>135</v>
+        <v>118</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.75">
+      <c r="F63" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16.5" thickBot="1">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>136</v>
+        <v>118</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15.75">
+      <c r="F64" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="16.5" thickBot="1">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>138</v>
+        <v>118</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75">
+    <row r="66" spans="1:6" ht="16.5" thickBot="1">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>140</v>
+        <v>118</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="15.75">
+      <c r="F66" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="16.5" thickBot="1">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>142</v>
+        <v>118</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75">
+    <row r="68" spans="1:6" ht="16.5" thickBot="1">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>143</v>
+        <v>118</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>105</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="15.75">
+      <c r="F68" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="16.5" thickBot="1">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>144</v>
+        <v>118</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="15.75">
+      <c r="F69" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="16.5" thickBot="1">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>146</v>
+        <v>118</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15.75">
+      <c r="F70" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="16.5" thickBot="1">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>147</v>
+        <v>118</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>181</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75">
+    <row r="72" spans="1:6" ht="16.5" thickBot="1">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>149</v>
+        <v>118</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="15.75">
+      <c r="F72" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="16.5" thickBot="1">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>151</v>
+        <v>118</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15.75">
+      <c r="F73" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="16.5" thickBot="1">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>153</v>
+        <v>118</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>184</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="15.75">
+      <c r="F74" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="16.5" thickBot="1">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>155</v>
+        <v>118</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.75">
+      <c r="F75" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" thickBot="1">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>156</v>
+        <v>118</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="15.75">
+      <c r="F76" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="16.5" thickBot="1">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>158</v>
+        <v>118</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.75">
+    <row r="78" spans="1:6" ht="16.5" thickBot="1">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>160</v>
+        <v>118</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="15.75">
+      <c r="F78" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="16.5" thickBot="1">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>162</v>
+        <v>118</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="15.75">
+      <c r="F79" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="16.5" thickBot="1">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>164</v>
+        <v>118</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>188</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F80" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.75">
+    <row r="81" spans="1:6" ht="16.5" thickBot="1">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>165</v>
+        <v>118</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.75">
+    <row r="82" spans="1:6" ht="16.5" thickBot="1">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>166</v>
+        <v>118</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>189</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15.75">
+      <c r="F82" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="16.5" thickBot="1">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>167</v>
+        <v>118</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>190</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="15.75">
+      <c r="F83" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="16.5" thickBot="1">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>168</v>
+        <v>118</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>191</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="15.75">
+      <c r="F84" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="16.5" thickBot="1">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>169</v>
+        <v>118</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15.75">
+      <c r="F85" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="16.5" thickBot="1">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>179</v>
+        <v>118</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>126</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.75">
+      <c r="F86" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="16.5" thickBot="1">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>180</v>
+        <v>118</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="15.75">
+      <c r="F87" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="16.5" thickBot="1">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C88" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C88" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="15.75">
+      <c r="F88" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="16.5" thickBot="1">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>182</v>
+        <v>118</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="15.75">
+        <v>131</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="16.5" thickBot="1">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>186</v>
+        <v>118</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="F90" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" thickBot="1">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>188</v>
+        <v>118</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>188</v>
-      </c>
+      <c r="F91" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" thickBot="1">
+      <c r="C92" s="4"/>
+      <c r="F92" s="4"/>
+    </row>
+    <row r="93" spans="1:6" ht="16.5" thickBot="1">
+      <c r="C93" s="11"/>
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94" spans="1:6" ht="16.5" thickBot="1">
+      <c r="C94" s="11"/>
+      <c r="F94" s="4"/>
+    </row>
+    <row r="95" spans="1:6" ht="16.5" thickBot="1">
+      <c r="C95" s="11"/>
+      <c r="F95" s="4"/>
+    </row>
+    <row r="96" spans="1:6" ht="16.5" thickBot="1">
+      <c r="C96" s="11"/>
+      <c r="F96" s="4"/>
+    </row>
+    <row r="97" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C97" s="11"/>
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C98" s="11"/>
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C99" s="11"/>
+      <c r="F99" s="4"/>
+    </row>
+    <row r="100" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C100" s="11"/>
+      <c r="F100" s="4"/>
+    </row>
+    <row r="101" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C101" s="11"/>
+      <c r="F101" s="4"/>
+    </row>
+    <row r="102" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C102" s="11"/>
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C103" s="11"/>
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C104" s="11"/>
+      <c r="F104" s="4"/>
+    </row>
+    <row r="105" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C105" s="11"/>
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C106" s="11"/>
+      <c r="F106" s="4"/>
+    </row>
+    <row r="107" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C107" s="11"/>
+      <c r="F107" s="4"/>
+    </row>
+    <row r="108" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C108" s="11"/>
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C109" s="11"/>
+      <c r="F109" s="4"/>
+    </row>
+    <row r="110" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C110" s="11"/>
+      <c r="F110" s="4"/>
+    </row>
+    <row r="111" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C111" s="11"/>
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C112" s="11"/>
+      <c r="F112" s="4"/>
+    </row>
+    <row r="113" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C113" s="11"/>
+      <c r="F113" s="4"/>
+    </row>
+    <row r="114" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C114" s="11"/>
+      <c r="F114" s="4"/>
+    </row>
+    <row r="115" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C115" s="11"/>
+      <c r="F115" s="4"/>
+    </row>
+    <row r="116" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C116" s="11"/>
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C117" s="11"/>
+      <c r="F117" s="4"/>
+    </row>
+    <row r="118" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C118" s="11"/>
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C119" s="11"/>
+      <c r="F119" s="4"/>
+    </row>
+    <row r="120" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C120" s="11"/>
+      <c r="F120" s="4"/>
+    </row>
+    <row r="121" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C121" s="11"/>
+      <c r="F121" s="4"/>
+    </row>
+    <row r="122" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C122" s="11"/>
+      <c r="F122" s="4"/>
+    </row>
+    <row r="123" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C123" s="11"/>
+      <c r="F123" s="4"/>
+    </row>
+    <row r="124" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C124" s="11"/>
+      <c r="F124" s="4"/>
+    </row>
+    <row r="125" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C125" s="11"/>
+      <c r="F125" s="4"/>
+    </row>
+    <row r="126" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C126" s="11"/>
+      <c r="F126" s="4"/>
+    </row>
+    <row r="127" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C127" s="11"/>
+      <c r="F127" s="4"/>
+    </row>
+    <row r="128" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C128" s="11"/>
+      <c r="F128" s="4"/>
+    </row>
+    <row r="129" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C129" s="11"/>
+      <c r="F129" s="4"/>
+    </row>
+    <row r="130" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C130" s="11"/>
+      <c r="F130" s="4"/>
+    </row>
+    <row r="131" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C131" s="11"/>
+      <c r="F131" s="4"/>
+    </row>
+    <row r="132" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C132" s="11"/>
+      <c r="F132" s="4"/>
+    </row>
+    <row r="133" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C133" s="11"/>
+      <c r="F133" s="4"/>
+    </row>
+    <row r="134" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C134" s="11"/>
+      <c r="F134" s="4"/>
+    </row>
+    <row r="135" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C135" s="11"/>
+      <c r="F135" s="4"/>
+    </row>
+    <row r="136" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C136" s="11"/>
+      <c r="F136" s="4"/>
+    </row>
+    <row r="137" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C137" s="11"/>
+      <c r="F137" s="4"/>
+    </row>
+    <row r="138" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C138" s="11"/>
+      <c r="F138" s="4"/>
+    </row>
+    <row r="139" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C139" s="11"/>
+      <c r="F139" s="4"/>
+    </row>
+    <row r="140" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C140" s="11"/>
+      <c r="F140" s="4"/>
+    </row>
+    <row r="141" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C141" s="11"/>
+      <c r="F141" s="4"/>
+    </row>
+    <row r="142" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C142" s="11"/>
+      <c r="F142" s="4"/>
+    </row>
+    <row r="143" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C143" s="11"/>
+      <c r="F143" s="4"/>
+    </row>
+    <row r="144" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C144" s="11"/>
+      <c r="F144" s="4"/>
+    </row>
+    <row r="145" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C145" s="11"/>
+      <c r="F145" s="4"/>
+    </row>
+    <row r="146" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C146" s="11"/>
+      <c r="F146" s="4"/>
+    </row>
+    <row r="147" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C147" s="11"/>
+      <c r="F147" s="4"/>
+    </row>
+    <row r="148" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C148" s="11"/>
+      <c r="F148" s="4"/>
+    </row>
+    <row r="149" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C149" s="11"/>
+      <c r="F149" s="4"/>
+    </row>
+    <row r="150" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C150" s="11"/>
+      <c r="F150" s="4"/>
+    </row>
+    <row r="151" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C151" s="11"/>
+      <c r="F151" s="4"/>
+    </row>
+    <row r="152" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C152" s="11"/>
+      <c r="F152" s="4"/>
+    </row>
+    <row r="153" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C153" s="11"/>
+      <c r="F153" s="4"/>
+    </row>
+    <row r="154" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C154" s="11"/>
+      <c r="F154" s="4"/>
+    </row>
+    <row r="155" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C155" s="11"/>
+      <c r="F155" s="4"/>
+    </row>
+    <row r="156" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C156" s="11"/>
+      <c r="F156" s="4"/>
+    </row>
+    <row r="157" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C157" s="11"/>
+      <c r="F157" s="4"/>
+    </row>
+    <row r="158" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C158" s="11"/>
+      <c r="F158" s="4"/>
+    </row>
+    <row r="159" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C159" s="11"/>
+      <c r="F159" s="4"/>
+    </row>
+    <row r="160" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C160" s="11"/>
+      <c r="F160" s="4"/>
+    </row>
+    <row r="161" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C161" s="11"/>
+      <c r="F161" s="4"/>
+    </row>
+    <row r="162" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C162" s="11"/>
+      <c r="F162" s="4"/>
+    </row>
+    <row r="163" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C163" s="11"/>
+      <c r="F163" s="4"/>
+    </row>
+    <row r="164" spans="3:6" ht="16.5" thickBot="1">
+      <c r="C164" s="11"/>
+      <c r="F164" s="4"/>
+    </row>
+    <row r="165" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C165" s="3"/>
+      <c r="F165" s="4"/>
+    </row>
+    <row r="166" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C166" s="3"/>
+      <c r="F166" s="4"/>
+    </row>
+    <row r="167" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C167" s="3"/>
+      <c r="F167" s="4"/>
+    </row>
+    <row r="168" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C168" s="3"/>
+      <c r="F168" s="4"/>
+    </row>
+    <row r="169" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C169" s="3"/>
+      <c r="F169" s="4"/>
+    </row>
+    <row r="170" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C170" s="3"/>
+      <c r="F170" s="4"/>
+    </row>
+    <row r="171" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C171" s="3"/>
+      <c r="F171" s="4"/>
+    </row>
+    <row r="172" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C172" s="3"/>
+      <c r="F172" s="4"/>
+    </row>
+    <row r="173" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C173" s="3"/>
+      <c r="F173" s="4"/>
+    </row>
+    <row r="174" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C174" s="3"/>
+      <c r="F174" s="4"/>
+    </row>
+    <row r="175" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C175" s="3"/>
+      <c r="F175" s="4"/>
+    </row>
+    <row r="176" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C176" s="3"/>
+      <c r="F176" s="4"/>
+    </row>
+    <row r="177" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C177" s="3"/>
+      <c r="F177" s="4"/>
+    </row>
+    <row r="178" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C178" s="3"/>
+      <c r="F178" s="4"/>
+    </row>
+    <row r="179" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C179" s="3"/>
+      <c r="F179" s="4"/>
+    </row>
+    <row r="180" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C180" s="3"/>
+      <c r="F180" s="4"/>
+    </row>
+    <row r="181" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C181" s="3"/>
+      <c r="F181" s="4"/>
+    </row>
+    <row r="182" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C182" s="3"/>
+      <c r="F182" s="4"/>
+    </row>
+    <row r="183" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C183" s="3"/>
+      <c r="F183" s="4"/>
+    </row>
+    <row r="184" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C184" s="3"/>
+      <c r="F184" s="4"/>
+    </row>
+    <row r="185" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C185" s="3"/>
+      <c r="F185" s="4"/>
+    </row>
+    <row r="186" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C186" s="3"/>
+      <c r="F186" s="4"/>
+    </row>
+    <row r="187" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C187" s="3"/>
+      <c r="F187" s="4"/>
+    </row>
+    <row r="188" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C188" s="3"/>
+      <c r="F188" s="4"/>
+    </row>
+    <row r="189" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C189" s="3"/>
+      <c r="F189" s="4"/>
+    </row>
+    <row r="190" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C190" s="3"/>
+      <c r="F190" s="4"/>
+    </row>
+    <row r="191" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C191" s="3"/>
+      <c r="F191" s="4"/>
+    </row>
+    <row r="192" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C192" s="3"/>
+      <c r="F192" s="4"/>
+    </row>
+    <row r="193" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C193" s="3"/>
+      <c r="F193" s="4"/>
+    </row>
+    <row r="194" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C194" s="3"/>
+      <c r="F194" s="4"/>
+    </row>
+    <row r="195" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C195" s="3"/>
+      <c r="F195" s="4"/>
+    </row>
+    <row r="196" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C196" s="3"/>
+      <c r="F196" s="4"/>
+    </row>
+    <row r="197" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C197" s="3"/>
+      <c r="F197" s="4"/>
+    </row>
+    <row r="198" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C198" s="3"/>
+      <c r="F198" s="4"/>
+    </row>
+    <row r="199" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C199" s="3"/>
+      <c r="F199" s="4"/>
+    </row>
+    <row r="200" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C200" s="3"/>
+      <c r="F200" s="4"/>
+    </row>
+    <row r="201" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C201" s="3"/>
+      <c r="F201" s="4"/>
+    </row>
+    <row r="202" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C202" s="3"/>
+      <c r="F202" s="4"/>
+    </row>
+    <row r="203" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C203" s="3"/>
+      <c r="F203" s="4"/>
+    </row>
+    <row r="204" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C204" s="3"/>
+      <c r="F204" s="4"/>
+    </row>
+    <row r="205" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C205" s="3"/>
+      <c r="F205" s="4"/>
+    </row>
+    <row r="206" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C206" s="3"/>
+      <c r="F206" s="4"/>
+    </row>
+    <row r="207" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C207" s="3"/>
+      <c r="F207" s="4"/>
+    </row>
+    <row r="208" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C208" s="3"/>
+      <c r="F208" s="4"/>
+    </row>
+    <row r="209" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C209" s="3"/>
+      <c r="F209" s="4"/>
+    </row>
+    <row r="210" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C210" s="3"/>
+      <c r="F210" s="4"/>
+    </row>
+    <row r="211" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C211" s="3"/>
+      <c r="F211" s="4"/>
+    </row>
+    <row r="212" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C212" s="3"/>
+      <c r="F212" s="4"/>
+    </row>
+    <row r="213" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C213" s="3"/>
+      <c r="F213" s="4"/>
+    </row>
+    <row r="214" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C214" s="3"/>
+      <c r="F214" s="4"/>
+    </row>
+    <row r="215" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C215" s="3"/>
+      <c r="F215" s="4"/>
+    </row>
+    <row r="216" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C216" s="3"/>
+      <c r="F216" s="4"/>
+    </row>
+    <row r="217" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C217" s="3"/>
+      <c r="F217" s="4"/>
+    </row>
+    <row r="218" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C218" s="3"/>
+      <c r="F218" s="4"/>
+    </row>
+    <row r="219" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C219" s="3"/>
+      <c r="F219" s="4"/>
+    </row>
+    <row r="220" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C220" s="3"/>
+      <c r="F220" s="4"/>
+    </row>
+    <row r="221" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C221" s="3"/>
+      <c r="F221" s="4"/>
+    </row>
+    <row r="222" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C222" s="3"/>
+      <c r="F222" s="4"/>
+    </row>
+    <row r="223" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C223" s="3"/>
+      <c r="F223" s="4"/>
+    </row>
+    <row r="224" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C224" s="3"/>
+      <c r="F224" s="4"/>
+    </row>
+    <row r="225" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C225" s="3"/>
+      <c r="F225" s="4"/>
+    </row>
+    <row r="226" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C226" s="3"/>
+      <c r="F226" s="4"/>
+    </row>
+    <row r="227" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C227" s="3"/>
+      <c r="F227" s="4"/>
+    </row>
+    <row r="228" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C228" s="3"/>
+      <c r="F228" s="4"/>
+    </row>
+    <row r="229" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C229" s="3"/>
+      <c r="F229" s="4"/>
+    </row>
+    <row r="230" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C230" s="3"/>
+      <c r="F230" s="4"/>
+    </row>
+    <row r="231" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C231" s="3"/>
+      <c r="F231" s="4"/>
+    </row>
+    <row r="232" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C232" s="3"/>
+      <c r="F232" s="4"/>
+    </row>
+    <row r="233" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C233" s="3"/>
+      <c r="F233" s="4"/>
+    </row>
+    <row r="234" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C234" s="3"/>
+      <c r="F234" s="4"/>
+    </row>
+    <row r="235" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C235" s="3"/>
+      <c r="F235" s="4"/>
+    </row>
+    <row r="236" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C236" s="3"/>
+      <c r="F236" s="4"/>
+    </row>
+    <row r="237" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C237" s="3"/>
+      <c r="F237" s="4"/>
+    </row>
+    <row r="238" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C238" s="3"/>
+      <c r="F238" s="4"/>
+    </row>
+    <row r="239" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C239" s="3"/>
+      <c r="F239" s="4"/>
+    </row>
+    <row r="240" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C240" s="3"/>
+      <c r="F240" s="4"/>
+    </row>
+    <row r="241" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C241" s="3"/>
+      <c r="F241" s="4"/>
+    </row>
+    <row r="242" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C242" s="3"/>
+      <c r="F242" s="4"/>
+    </row>
+    <row r="243" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C243" s="3"/>
+      <c r="F243" s="4"/>
+    </row>
+    <row r="244" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C244" s="3"/>
+      <c r="F244" s="4"/>
+    </row>
+    <row r="245" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C245" s="3"/>
+      <c r="F245" s="4"/>
+    </row>
+    <row r="246" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C246" s="3"/>
+      <c r="F246" s="4"/>
+    </row>
+    <row r="247" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C247" s="3"/>
+      <c r="F247" s="4"/>
+    </row>
+    <row r="248" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C248" s="3"/>
+      <c r="F248" s="4"/>
+    </row>
+    <row r="249" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C249" s="3"/>
+      <c r="F249" s="4"/>
+    </row>
+    <row r="250" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C250" s="3"/>
+      <c r="F250" s="4"/>
+    </row>
+    <row r="251" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C251" s="3"/>
+      <c r="F251" s="4"/>
+    </row>
+    <row r="252" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C252" s="3"/>
+      <c r="F252" s="4"/>
+    </row>
+    <row r="253" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C253" s="3"/>
+      <c r="F253" s="4"/>
+    </row>
+    <row r="254" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C254" s="3"/>
+      <c r="F254" s="4"/>
+    </row>
+    <row r="255" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C255" s="3"/>
+      <c r="F255" s="4"/>
+    </row>
+    <row r="256" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C256" s="3"/>
+      <c r="F256" s="4"/>
+    </row>
+    <row r="257" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C257" s="3"/>
+      <c r="F257" s="4"/>
+    </row>
+    <row r="258" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C258" s="3"/>
+      <c r="F258" s="4"/>
+    </row>
+    <row r="259" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C259" s="3"/>
+      <c r="F259" s="4"/>
+    </row>
+    <row r="260" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C260" s="3"/>
+      <c r="F260" s="4"/>
+    </row>
+    <row r="261" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C261" s="3"/>
+      <c r="F261" s="4"/>
+    </row>
+    <row r="262" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C262" s="3"/>
+      <c r="F262" s="4"/>
+    </row>
+    <row r="263" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C263" s="3"/>
+      <c r="F263" s="4"/>
+    </row>
+    <row r="264" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C264" s="3"/>
+      <c r="F264" s="4"/>
+    </row>
+    <row r="265" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C265" s="3"/>
+      <c r="F265" s="4"/>
+    </row>
+    <row r="266" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C266" s="3"/>
+      <c r="F266" s="4"/>
+    </row>
+    <row r="267" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C267" s="3"/>
+      <c r="F267" s="4"/>
+    </row>
+    <row r="268" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C268" s="3"/>
+      <c r="F268" s="4"/>
+    </row>
+    <row r="269" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C269" s="3"/>
+      <c r="F269" s="4"/>
+    </row>
+    <row r="270" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C270" s="3"/>
+      <c r="F270" s="4"/>
+    </row>
+    <row r="271" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C271" s="3"/>
+      <c r="F271" s="4"/>
+    </row>
+    <row r="272" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C272" s="3"/>
+      <c r="F272" s="4"/>
+    </row>
+    <row r="273" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C273" s="3"/>
+      <c r="F273" s="4"/>
+    </row>
+    <row r="274" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C274" s="3"/>
+      <c r="F274" s="4"/>
+    </row>
+    <row r="275" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C275" s="3"/>
+      <c r="F275" s="4"/>
+    </row>
+    <row r="276" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C276" s="3"/>
+      <c r="F276" s="4"/>
+    </row>
+    <row r="277" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C277" s="3"/>
+      <c r="F277" s="4"/>
+    </row>
+    <row r="278" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C278" s="3"/>
+      <c r="F278" s="4"/>
+    </row>
+    <row r="279" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C279" s="3"/>
+      <c r="F279" s="4"/>
+    </row>
+    <row r="280" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C280" s="3"/>
+      <c r="F280" s="4"/>
+    </row>
+    <row r="281" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C281" s="3"/>
+      <c r="F281" s="4"/>
+    </row>
+    <row r="282" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C282" s="3"/>
+      <c r="F282" s="4"/>
+    </row>
+    <row r="283" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C283" s="3"/>
+      <c r="F283" s="4"/>
+    </row>
+    <row r="284" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C284" s="3"/>
+      <c r="F284" s="4"/>
+    </row>
+    <row r="285" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C285" s="3"/>
+      <c r="F285" s="4"/>
+    </row>
+    <row r="286" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C286" s="3"/>
+      <c r="F286" s="4"/>
+    </row>
+    <row r="287" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C287" s="3"/>
+      <c r="F287" s="4"/>
+    </row>
+    <row r="288" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C288" s="3"/>
+      <c r="F288" s="4"/>
+    </row>
+    <row r="289" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C289" s="3"/>
+      <c r="F289" s="4"/>
+    </row>
+    <row r="290" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C290" s="3"/>
+      <c r="F290" s="4"/>
+    </row>
+    <row r="291" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C291" s="3"/>
+      <c r="F291" s="4"/>
+    </row>
+    <row r="292" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C292" s="3"/>
+      <c r="F292" s="4"/>
+    </row>
+    <row r="293" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C293" s="3"/>
+      <c r="F293" s="4"/>
+    </row>
+    <row r="294" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C294" s="3"/>
+      <c r="F294" s="4"/>
+    </row>
+    <row r="295" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C295" s="3"/>
+      <c r="F295" s="4"/>
+    </row>
+    <row r="296" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C296" s="3"/>
+      <c r="F296" s="4"/>
+    </row>
+    <row r="297" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C297" s="3"/>
+      <c r="F297" s="4"/>
+    </row>
+    <row r="298" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C298" s="3"/>
+      <c r="F298" s="4"/>
+    </row>
+    <row r="299" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C299" s="3"/>
+      <c r="F299" s="4"/>
+    </row>
+    <row r="300" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C300" s="3"/>
+      <c r="F300" s="4"/>
+    </row>
+    <row r="301" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C301" s="3"/>
+      <c r="F301" s="4"/>
+    </row>
+    <row r="302" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C302" s="3"/>
+      <c r="F302" s="4"/>
+    </row>
+    <row r="303" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C303" s="3"/>
+      <c r="F303" s="4"/>
+    </row>
+    <row r="304" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C304" s="3"/>
+      <c r="F304" s="4"/>
+    </row>
+    <row r="305" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C305" s="3"/>
+      <c r="F305" s="4"/>
+    </row>
+    <row r="306" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C306" s="3"/>
+      <c r="F306" s="4"/>
+    </row>
+    <row r="307" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C307" s="3"/>
+      <c r="F307" s="4"/>
+    </row>
+    <row r="308" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C308" s="3"/>
+      <c r="F308" s="4"/>
+    </row>
+    <row r="309" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C309" s="3"/>
+      <c r="F309" s="4"/>
+    </row>
+    <row r="310" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C310" s="3"/>
+      <c r="F310" s="4"/>
+    </row>
+    <row r="311" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C311" s="3"/>
+      <c r="F311" s="4"/>
+    </row>
+    <row r="312" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C312" s="3"/>
+      <c r="F312" s="4"/>
+    </row>
+    <row r="313" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C313" s="3"/>
+      <c r="F313" s="4"/>
+    </row>
+    <row r="314" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C314" s="3"/>
+      <c r="F314" s="4"/>
+    </row>
+    <row r="315" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C315" s="3"/>
+      <c r="F315" s="4"/>
+    </row>
+    <row r="316" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C316" s="3"/>
+      <c r="F316" s="4"/>
+    </row>
+    <row r="317" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C317" s="3"/>
+      <c r="F317" s="4"/>
+    </row>
+    <row r="318" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C318" s="3"/>
+      <c r="F318" s="4"/>
+    </row>
+    <row r="319" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C319" s="3"/>
+      <c r="F319" s="4"/>
+    </row>
+    <row r="320" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C320" s="3"/>
+      <c r="F320" s="4"/>
+    </row>
+    <row r="321" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C321" s="3"/>
+      <c r="F321" s="4"/>
+    </row>
+    <row r="322" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C322" s="3"/>
+      <c r="F322" s="4"/>
+    </row>
+    <row r="323" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C323" s="3"/>
+      <c r="F323" s="4"/>
+    </row>
+    <row r="324" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C324" s="3"/>
+      <c r="F324" s="4"/>
+    </row>
+    <row r="325" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C325" s="3"/>
+      <c r="F325" s="4"/>
+    </row>
+    <row r="326" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C326" s="3"/>
+      <c r="F326" s="4"/>
+    </row>
+    <row r="327" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C327" s="3"/>
+      <c r="F327" s="4"/>
+    </row>
+    <row r="328" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C328" s="3"/>
+      <c r="F328" s="4"/>
+    </row>
+    <row r="329" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C329" s="3"/>
+      <c r="F329" s="4"/>
+    </row>
+    <row r="330" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C330" s="3"/>
+      <c r="F330" s="4"/>
+    </row>
+    <row r="331" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C331" s="3"/>
+      <c r="F331" s="4"/>
+    </row>
+    <row r="332" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C332" s="3"/>
+      <c r="F332" s="4"/>
+    </row>
+    <row r="333" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C333" s="3"/>
+      <c r="F333" s="4"/>
+    </row>
+    <row r="334" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C334" s="3"/>
+      <c r="F334" s="4"/>
+    </row>
+    <row r="335" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C335" s="3"/>
+      <c r="F335" s="4"/>
+    </row>
+    <row r="336" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C336" s="3"/>
+      <c r="F336" s="4"/>
+    </row>
+    <row r="337" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C337" s="3"/>
+      <c r="F337" s="4"/>
+    </row>
+    <row r="338" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C338" s="3"/>
+      <c r="F338" s="4"/>
+    </row>
+    <row r="339" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C339" s="3"/>
+      <c r="F339" s="4"/>
+    </row>
+    <row r="340" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C340" s="3"/>
+      <c r="F340" s="4"/>
+    </row>
+    <row r="341" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C341" s="3"/>
+      <c r="F341" s="4"/>
+    </row>
+    <row r="342" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C342" s="3"/>
+      <c r="F342" s="4"/>
+    </row>
+    <row r="343" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C343" s="3"/>
+      <c r="F343" s="4"/>
+    </row>
+    <row r="344" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C344" s="3"/>
+      <c r="F344" s="4"/>
+    </row>
+    <row r="345" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C345" s="3"/>
+      <c r="F345" s="4"/>
+    </row>
+    <row r="346" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C346" s="3"/>
+      <c r="F346" s="4"/>
+    </row>
+    <row r="347" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C347" s="3"/>
+      <c r="F347" s="4"/>
+    </row>
+    <row r="348" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C348" s="3"/>
+      <c r="F348" s="4"/>
+    </row>
+    <row r="349" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C349" s="3"/>
+      <c r="F349" s="4"/>
+    </row>
+    <row r="350" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C350" s="3"/>
+      <c r="F350" s="4"/>
+    </row>
+    <row r="351" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C351" s="3"/>
+      <c r="F351" s="4"/>
+    </row>
+    <row r="352" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C352" s="3"/>
+      <c r="F352" s="4"/>
+    </row>
+    <row r="353" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C353" s="3"/>
+      <c r="F353" s="4"/>
+    </row>
+    <row r="354" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C354" s="3"/>
+      <c r="F354" s="4"/>
+    </row>
+    <row r="355" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C355" s="3"/>
+      <c r="F355" s="4"/>
+    </row>
+    <row r="356" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C356" s="3"/>
+      <c r="F356" s="4"/>
+    </row>
+    <row r="357" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C357" s="3"/>
+      <c r="F357" s="4"/>
+    </row>
+    <row r="358" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C358" s="3"/>
+      <c r="F358" s="4"/>
+    </row>
+    <row r="359" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C359" s="3"/>
+      <c r="F359" s="4"/>
+    </row>
+    <row r="360" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C360" s="3"/>
+      <c r="F360" s="4"/>
+    </row>
+    <row r="361" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C361" s="3"/>
+      <c r="F361" s="4"/>
+    </row>
+    <row r="362" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C362" s="3"/>
+      <c r="F362" s="4"/>
+    </row>
+    <row r="363" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C363" s="3"/>
+      <c r="F363" s="4"/>
+    </row>
+    <row r="364" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C364" s="3"/>
+      <c r="F364" s="4"/>
+    </row>
+    <row r="365" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C365" s="3"/>
+      <c r="F365" s="4"/>
+    </row>
+    <row r="366" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C366" s="3"/>
+      <c r="F366" s="4"/>
+    </row>
+    <row r="367" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C367" s="3"/>
+      <c r="F367" s="4"/>
+    </row>
+    <row r="368" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C368" s="3"/>
+      <c r="F368" s="4"/>
+    </row>
+    <row r="369" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C369" s="3"/>
+      <c r="F369" s="4"/>
+    </row>
+    <row r="370" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C370" s="3"/>
+      <c r="F370" s="4"/>
+    </row>
+    <row r="371" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C371" s="3"/>
+      <c r="F371" s="4"/>
+    </row>
+    <row r="372" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C372" s="3"/>
+      <c r="F372" s="4"/>
+    </row>
+    <row r="373" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C373" s="3"/>
+      <c r="F373" s="4"/>
+    </row>
+    <row r="374" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C374" s="3"/>
+      <c r="F374" s="4"/>
+    </row>
+    <row r="375" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C375" s="3"/>
+      <c r="F375" s="4"/>
+    </row>
+    <row r="376" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C376" s="3"/>
+      <c r="F376" s="4"/>
+    </row>
+    <row r="377" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C377" s="3"/>
+      <c r="F377" s="4"/>
+    </row>
+    <row r="378" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C378" s="3"/>
+      <c r="F378" s="4"/>
+    </row>
+    <row r="379" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C379" s="3"/>
+      <c r="F379" s="4"/>
+    </row>
+    <row r="380" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C380" s="3"/>
+      <c r="F380" s="4"/>
+    </row>
+    <row r="381" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C381" s="3"/>
+      <c r="F381" s="4"/>
+    </row>
+    <row r="382" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C382" s="3"/>
+      <c r="F382" s="4"/>
+    </row>
+    <row r="383" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C383" s="3"/>
+      <c r="F383" s="4"/>
+    </row>
+    <row r="384" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C384" s="3"/>
+      <c r="F384" s="4"/>
+    </row>
+    <row r="385" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C385" s="3"/>
+      <c r="F385" s="4"/>
+    </row>
+    <row r="386" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C386" s="3"/>
+      <c r="F386" s="4"/>
+    </row>
+    <row r="387" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C387" s="3"/>
+      <c r="F387" s="4"/>
+    </row>
+    <row r="388" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C388" s="3"/>
+      <c r="F388" s="4"/>
+    </row>
+    <row r="389" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C389" s="3"/>
+      <c r="F389" s="4"/>
+    </row>
+    <row r="390" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C390" s="3"/>
+      <c r="F390" s="4"/>
+    </row>
+    <row r="391" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C391" s="3"/>
+      <c r="F391" s="4"/>
+    </row>
+    <row r="392" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C392" s="3"/>
+      <c r="F392" s="4"/>
+    </row>
+    <row r="393" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C393" s="3"/>
+      <c r="F393" s="4"/>
+    </row>
+    <row r="394" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C394" s="3"/>
+      <c r="F394" s="4"/>
+    </row>
+    <row r="395" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C395" s="3"/>
+      <c r="F395" s="4"/>
+    </row>
+    <row r="396" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C396" s="3"/>
+      <c r="F396" s="4"/>
+    </row>
+    <row r="397" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C397" s="3"/>
+      <c r="F397" s="4"/>
+    </row>
+    <row r="398" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C398" s="3"/>
+      <c r="F398" s="4"/>
+    </row>
+    <row r="399" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C399" s="3"/>
+      <c r="F399" s="4"/>
+    </row>
+    <row r="400" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C400" s="3"/>
+      <c r="F400" s="4"/>
+    </row>
+    <row r="401" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C401" s="3"/>
+      <c r="F401" s="4"/>
+    </row>
+    <row r="402" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C402" s="3"/>
+      <c r="F402" s="4"/>
+    </row>
+    <row r="403" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C403" s="3"/>
+      <c r="F403" s="4"/>
+    </row>
+    <row r="404" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C404" s="3"/>
+      <c r="F404" s="4"/>
+    </row>
+    <row r="405" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C405" s="3"/>
+      <c r="F405" s="4"/>
+    </row>
+    <row r="406" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C406" s="3"/>
+      <c r="F406" s="4"/>
+    </row>
+    <row r="407" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C407" s="3"/>
+      <c r="F407" s="4"/>
+    </row>
+    <row r="408" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C408" s="3"/>
+      <c r="F408" s="4"/>
+    </row>
+    <row r="409" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C409" s="3"/>
+      <c r="F409" s="4"/>
+    </row>
+    <row r="410" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C410" s="3"/>
+      <c r="F410" s="4"/>
+    </row>
+    <row r="411" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C411" s="3"/>
+      <c r="F411" s="4"/>
+    </row>
+    <row r="412" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C412" s="3"/>
+      <c r="F412" s="4"/>
+    </row>
+    <row r="413" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C413" s="3"/>
+      <c r="F413" s="4"/>
+    </row>
+    <row r="414" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C414" s="3"/>
+      <c r="F414" s="4"/>
+    </row>
+    <row r="415" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C415" s="3"/>
+      <c r="F415" s="4"/>
+    </row>
+    <row r="416" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C416" s="3"/>
+      <c r="F416" s="4"/>
+    </row>
+    <row r="417" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C417" s="3"/>
+      <c r="F417" s="4"/>
+    </row>
+    <row r="418" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C418" s="3"/>
+      <c r="F418" s="4"/>
+    </row>
+    <row r="419" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C419" s="3"/>
+      <c r="F419" s="4"/>
+    </row>
+    <row r="420" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C420" s="3"/>
+      <c r="F420" s="4"/>
+    </row>
+    <row r="421" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C421" s="3"/>
+      <c r="F421" s="4"/>
+    </row>
+    <row r="422" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C422" s="3"/>
+      <c r="F422" s="4"/>
+    </row>
+    <row r="423" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C423" s="3"/>
+      <c r="F423" s="4"/>
+    </row>
+    <row r="424" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C424" s="3"/>
+      <c r="F424" s="4"/>
+    </row>
+    <row r="425" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C425" s="3"/>
+      <c r="F425" s="4"/>
+    </row>
+    <row r="426" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C426" s="3"/>
+      <c r="F426" s="4"/>
+    </row>
+    <row r="427" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C427" s="3"/>
+      <c r="F427" s="4"/>
+    </row>
+    <row r="428" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C428" s="3"/>
+      <c r="F428" s="4"/>
+    </row>
+    <row r="429" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C429" s="3"/>
+      <c r="F429" s="4"/>
+    </row>
+    <row r="430" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C430" s="3"/>
+      <c r="F430" s="4"/>
+    </row>
+    <row r="431" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C431" s="3"/>
+      <c r="F431" s="4"/>
+    </row>
+    <row r="432" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C432" s="3"/>
+      <c r="F432" s="4"/>
+    </row>
+    <row r="433" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C433" s="3"/>
+      <c r="F433" s="4"/>
+    </row>
+    <row r="434" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C434" s="3"/>
+      <c r="F434" s="4"/>
+    </row>
+    <row r="435" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C435" s="3"/>
+      <c r="F435" s="4"/>
+    </row>
+    <row r="436" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C436" s="3"/>
+      <c r="F436" s="4"/>
+    </row>
+    <row r="437" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C437" s="3"/>
+      <c r="F437" s="4"/>
+    </row>
+    <row r="438" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C438" s="3"/>
+      <c r="F438" s="4"/>
+    </row>
+    <row r="439" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C439" s="3"/>
+      <c r="F439" s="4"/>
+    </row>
+    <row r="440" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C440" s="3"/>
+      <c r="F440" s="4"/>
+    </row>
+    <row r="441" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C441" s="3"/>
+      <c r="F441" s="4"/>
+    </row>
+    <row r="442" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C442" s="3"/>
+      <c r="F442" s="4"/>
+    </row>
+    <row r="443" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C443" s="3"/>
+      <c r="F443" s="4"/>
+    </row>
+    <row r="444" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C444" s="3"/>
+      <c r="F444" s="4"/>
+    </row>
+    <row r="445" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C445" s="3"/>
+      <c r="F445" s="4"/>
+    </row>
+    <row r="446" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C446" s="3"/>
+      <c r="F446" s="4"/>
+    </row>
+    <row r="447" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C447" s="3"/>
+      <c r="F447" s="4"/>
+    </row>
+    <row r="448" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C448" s="3"/>
+      <c r="F448" s="4"/>
+    </row>
+    <row r="449" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C449" s="3"/>
+      <c r="F449" s="4"/>
+    </row>
+    <row r="450" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C450" s="3"/>
+      <c r="F450" s="4"/>
+    </row>
+    <row r="451" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C451" s="3"/>
+      <c r="F451" s="4"/>
+    </row>
+    <row r="452" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C452" s="3"/>
+      <c r="F452" s="4"/>
+    </row>
+    <row r="453" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C453" s="3"/>
+      <c r="F453" s="4"/>
+    </row>
+    <row r="454" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C454" s="3"/>
+      <c r="F454" s="4"/>
+    </row>
+    <row r="455" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C455" s="3"/>
+      <c r="F455" s="4"/>
+    </row>
+    <row r="456" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C456" s="3"/>
+      <c r="F456" s="4"/>
+    </row>
+    <row r="457" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C457" s="3"/>
+      <c r="F457" s="4"/>
+    </row>
+    <row r="458" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C458" s="3"/>
+      <c r="F458" s="4"/>
+    </row>
+    <row r="459" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C459" s="3"/>
+      <c r="F459" s="4"/>
+    </row>
+    <row r="460" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C460" s="3"/>
+      <c r="F460" s="4"/>
+    </row>
+    <row r="461" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C461" s="3"/>
+      <c r="F461" s="4"/>
+    </row>
+    <row r="462" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C462" s="3"/>
+      <c r="F462" s="4"/>
+    </row>
+    <row r="463" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C463" s="3"/>
+      <c r="F463" s="4"/>
+    </row>
+    <row r="464" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C464" s="3"/>
+      <c r="F464" s="4"/>
+    </row>
+    <row r="465" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C465" s="3"/>
+      <c r="F465" s="4"/>
+    </row>
+    <row r="466" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C466" s="3"/>
+      <c r="F466" s="4"/>
+    </row>
+    <row r="467" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C467" s="3"/>
+      <c r="F467" s="4"/>
+    </row>
+    <row r="468" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C468" s="3"/>
+      <c r="F468" s="4"/>
+    </row>
+    <row r="469" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C469" s="3"/>
+      <c r="F469" s="4"/>
+    </row>
+    <row r="470" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C470" s="3"/>
+      <c r="F470" s="4"/>
+    </row>
+    <row r="471" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C471" s="3"/>
+      <c r="F471" s="4"/>
+    </row>
+    <row r="472" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C472" s="3"/>
+      <c r="F472" s="4"/>
+    </row>
+    <row r="473" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C473" s="3"/>
+      <c r="F473" s="4"/>
+    </row>
+    <row r="474" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C474" s="3"/>
+      <c r="F474" s="4"/>
+    </row>
+    <row r="475" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C475" s="3"/>
+      <c r="F475" s="4"/>
+    </row>
+    <row r="476" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C476" s="3"/>
+      <c r="F476" s="4"/>
+    </row>
+    <row r="477" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C477" s="3"/>
+      <c r="F477" s="4"/>
+    </row>
+    <row r="478" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C478" s="3"/>
+      <c r="F478" s="4"/>
+    </row>
+    <row r="479" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C479" s="3"/>
+      <c r="F479" s="4"/>
+    </row>
+    <row r="480" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C480" s="3"/>
+      <c r="F480" s="4"/>
+    </row>
+    <row r="481" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C481" s="3"/>
+      <c r="F481" s="4"/>
+    </row>
+    <row r="482" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C482" s="3"/>
+      <c r="F482" s="4"/>
+    </row>
+    <row r="483" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C483" s="3"/>
+      <c r="F483" s="4"/>
+    </row>
+    <row r="484" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C484" s="3"/>
+      <c r="F484" s="4"/>
+    </row>
+    <row r="485" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C485" s="3"/>
+      <c r="F485" s="4"/>
+    </row>
+    <row r="486" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C486" s="3"/>
+      <c r="F486" s="4"/>
+    </row>
+    <row r="487" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C487" s="3"/>
+      <c r="F487" s="4"/>
+    </row>
+    <row r="488" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C488" s="3"/>
+      <c r="F488" s="4"/>
+    </row>
+    <row r="489" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C489" s="3"/>
+      <c r="F489" s="4"/>
+    </row>
+    <row r="490" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C490" s="3"/>
+      <c r="F490" s="4"/>
+    </row>
+    <row r="491" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C491" s="3"/>
+      <c r="F491" s="4"/>
+    </row>
+    <row r="492" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C492" s="3"/>
+      <c r="F492" s="4"/>
+    </row>
+    <row r="493" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C493" s="3"/>
+      <c r="F493" s="4"/>
+    </row>
+    <row r="494" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C494" s="3"/>
+      <c r="F494" s="4"/>
+    </row>
+    <row r="495" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C495" s="3"/>
+      <c r="F495" s="4"/>
+    </row>
+    <row r="496" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C496" s="3"/>
+      <c r="F496" s="4"/>
+    </row>
+    <row r="497" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C497" s="3"/>
+      <c r="F497" s="4"/>
+    </row>
+    <row r="498" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C498" s="3"/>
+      <c r="F498" s="4"/>
+    </row>
+    <row r="499" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C499" s="3"/>
+      <c r="F499" s="4"/>
+    </row>
+    <row r="500" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C500" s="3"/>
+      <c r="F500" s="4"/>
+    </row>
+    <row r="501" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C501" s="3"/>
+      <c r="F501" s="4"/>
+    </row>
+    <row r="502" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C502" s="3"/>
+      <c r="F502" s="4"/>
+    </row>
+    <row r="503" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C503" s="3"/>
+      <c r="F503" s="4"/>
+    </row>
+    <row r="504" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C504" s="3"/>
+      <c r="F504" s="4"/>
+    </row>
+    <row r="505" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C505" s="3"/>
+      <c r="F505" s="4"/>
+    </row>
+    <row r="506" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C506" s="3"/>
+      <c r="F506" s="4"/>
+    </row>
+    <row r="507" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C507" s="3"/>
+      <c r="F507" s="4"/>
+    </row>
+    <row r="508" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C508" s="3"/>
+      <c r="F508" s="4"/>
+    </row>
+    <row r="509" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C509" s="3"/>
+      <c r="F509" s="4"/>
+    </row>
+    <row r="510" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C510" s="3"/>
+      <c r="F510" s="4"/>
+    </row>
+    <row r="511" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C511" s="3"/>
+      <c r="F511" s="4"/>
+    </row>
+    <row r="512" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C512" s="3"/>
+      <c r="F512" s="4"/>
+    </row>
+    <row r="513" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C513" s="3"/>
+      <c r="F513" s="4"/>
+    </row>
+    <row r="514" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C514" s="3"/>
+      <c r="F514" s="4"/>
+    </row>
+    <row r="515" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C515" s="3"/>
+      <c r="F515" s="4"/>
+    </row>
+    <row r="516" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C516" s="3"/>
+      <c r="F516" s="4"/>
+    </row>
+    <row r="517" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C517" s="3"/>
+      <c r="F517" s="4"/>
+    </row>
+    <row r="518" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C518" s="3"/>
+      <c r="F518" s="4"/>
+    </row>
+    <row r="519" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C519" s="3"/>
+      <c r="F519" s="4"/>
+    </row>
+    <row r="520" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C520" s="3"/>
+      <c r="F520" s="4"/>
+    </row>
+    <row r="521" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C521" s="3"/>
+      <c r="F521" s="4"/>
+    </row>
+    <row r="522" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C522" s="3"/>
+      <c r="F522" s="4"/>
+    </row>
+    <row r="523" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C523" s="3"/>
+      <c r="F523" s="4"/>
+    </row>
+    <row r="524" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C524" s="3"/>
+      <c r="F524" s="4"/>
+    </row>
+    <row r="525" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C525" s="3"/>
+      <c r="F525" s="4"/>
+    </row>
+    <row r="526" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C526" s="3"/>
+      <c r="F526" s="4"/>
+    </row>
+    <row r="527" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C527" s="3"/>
+      <c r="F527" s="4"/>
+    </row>
+    <row r="528" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C528" s="3"/>
+      <c r="F528" s="4"/>
+    </row>
+    <row r="529" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C529" s="3"/>
+      <c r="F529" s="4"/>
+    </row>
+    <row r="530" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C530" s="3"/>
+      <c r="F530" s="4"/>
+    </row>
+    <row r="531" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C531" s="3"/>
+      <c r="F531" s="4"/>
+    </row>
+    <row r="532" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C532" s="3"/>
+      <c r="F532" s="4"/>
+    </row>
+    <row r="533" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C533" s="3"/>
+      <c r="F533" s="4"/>
+    </row>
+    <row r="534" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C534" s="3"/>
+      <c r="F534" s="4"/>
+    </row>
+    <row r="535" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C535" s="3"/>
+      <c r="F535" s="4"/>
+    </row>
+    <row r="536" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C536" s="3"/>
+      <c r="F536" s="4"/>
+    </row>
+    <row r="537" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C537" s="3"/>
+      <c r="F537" s="4"/>
+    </row>
+    <row r="538" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C538" s="3"/>
+      <c r="F538" s="4"/>
+    </row>
+    <row r="539" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C539" s="3"/>
+      <c r="F539" s="4"/>
+    </row>
+    <row r="540" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C540" s="3"/>
+      <c r="F540" s="4"/>
+    </row>
+    <row r="541" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C541" s="3"/>
+      <c r="F541" s="4"/>
+    </row>
+    <row r="542" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C542" s="3"/>
+      <c r="F542" s="4"/>
+    </row>
+    <row r="543" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C543" s="3"/>
+      <c r="F543" s="4"/>
+    </row>
+    <row r="544" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C544" s="3"/>
+      <c r="F544" s="4"/>
+    </row>
+    <row r="545" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C545" s="3"/>
+      <c r="F545" s="4"/>
+    </row>
+    <row r="546" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C546" s="3"/>
+      <c r="F546" s="4"/>
+    </row>
+    <row r="547" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C547" s="3"/>
+      <c r="F547" s="4"/>
+    </row>
+    <row r="548" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C548" s="3"/>
+      <c r="F548" s="4"/>
+    </row>
+    <row r="549" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C549" s="3"/>
+      <c r="F549" s="4"/>
+    </row>
+    <row r="550" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C550" s="3"/>
+      <c r="F550" s="4"/>
+    </row>
+    <row r="551" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C551" s="3"/>
+      <c r="F551" s="4"/>
+    </row>
+    <row r="552" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C552" s="3"/>
+      <c r="F552" s="4"/>
+    </row>
+    <row r="553" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C553" s="3"/>
+      <c r="F553" s="4"/>
+    </row>
+    <row r="554" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C554" s="3"/>
+      <c r="F554" s="4"/>
+    </row>
+    <row r="555" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C555" s="3"/>
+      <c r="F555" s="4"/>
+    </row>
+    <row r="556" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C556" s="3"/>
+      <c r="F556" s="4"/>
+    </row>
+    <row r="557" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C557" s="3"/>
+      <c r="F557" s="4"/>
+    </row>
+    <row r="558" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C558" s="3"/>
+      <c r="F558" s="4"/>
+    </row>
+    <row r="559" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C559" s="3"/>
+      <c r="F559" s="4"/>
+    </row>
+    <row r="560" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C560" s="3"/>
+      <c r="F560" s="4"/>
+    </row>
+    <row r="561" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C561" s="3"/>
+      <c r="F561" s="4"/>
+    </row>
+    <row r="562" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C562" s="3"/>
+      <c r="F562" s="4"/>
+    </row>
+    <row r="563" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C563" s="3"/>
+      <c r="F563" s="4"/>
+    </row>
+    <row r="564" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C564" s="3"/>
+      <c r="F564" s="4"/>
+    </row>
+    <row r="565" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C565" s="3"/>
+      <c r="F565" s="4"/>
+    </row>
+    <row r="566" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C566" s="3"/>
+      <c r="F566" s="4"/>
+    </row>
+    <row r="567" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C567" s="3"/>
+      <c r="F567" s="4"/>
+    </row>
+    <row r="568" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C568" s="3"/>
+      <c r="F568" s="4"/>
+    </row>
+    <row r="569" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C569" s="3"/>
+      <c r="F569" s="4"/>
+    </row>
+    <row r="570" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C570" s="3"/>
+      <c r="F570" s="4"/>
+    </row>
+    <row r="571" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C571" s="3"/>
+      <c r="F571" s="4"/>
+    </row>
+    <row r="572" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C572" s="3"/>
+      <c r="F572" s="4"/>
+    </row>
+    <row r="573" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C573" s="3"/>
+      <c r="F573" s="4"/>
+    </row>
+    <row r="574" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C574" s="3"/>
+      <c r="F574" s="4"/>
+    </row>
+    <row r="575" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C575" s="3"/>
+      <c r="F575" s="4"/>
+    </row>
+    <row r="576" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C576" s="3"/>
+      <c r="F576" s="4"/>
+    </row>
+    <row r="577" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C577" s="3"/>
+      <c r="F577" s="4"/>
+    </row>
+    <row r="578" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C578" s="3"/>
+      <c r="F578" s="4"/>
+    </row>
+    <row r="579" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C579" s="3"/>
+      <c r="F579" s="4"/>
+    </row>
+    <row r="580" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C580" s="3"/>
+      <c r="F580" s="4"/>
+    </row>
+    <row r="581" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C581" s="3"/>
+      <c r="F581" s="4"/>
+    </row>
+    <row r="582" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C582" s="3"/>
+      <c r="F582" s="4"/>
+    </row>
+    <row r="583" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C583" s="3"/>
+      <c r="F583" s="4"/>
+    </row>
+    <row r="584" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C584" s="3"/>
+      <c r="F584" s="4"/>
+    </row>
+    <row r="585" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C585" s="3"/>
+      <c r="F585" s="4"/>
+    </row>
+    <row r="586" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C586" s="3"/>
+      <c r="F586" s="4"/>
+    </row>
+    <row r="587" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C587" s="3"/>
+      <c r="F587" s="4"/>
+    </row>
+    <row r="588" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C588" s="3"/>
+      <c r="F588" s="4"/>
+    </row>
+    <row r="589" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C589" s="3"/>
+      <c r="F589" s="4"/>
+    </row>
+    <row r="590" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C590" s="3"/>
+      <c r="F590" s="4"/>
+    </row>
+    <row r="591" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C591" s="3"/>
+      <c r="F591" s="4"/>
+    </row>
+    <row r="592" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C592" s="3"/>
+      <c r="F592" s="4"/>
+    </row>
+    <row r="593" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C593" s="3"/>
+      <c r="F593" s="4"/>
+    </row>
+    <row r="594" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C594" s="3"/>
+      <c r="F594" s="4"/>
+    </row>
+    <row r="595" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C595" s="3"/>
+      <c r="F595" s="4"/>
+    </row>
+    <row r="596" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C596" s="3"/>
+      <c r="F596" s="4"/>
+    </row>
+    <row r="597" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C597" s="3"/>
+      <c r="F597" s="4"/>
+    </row>
+    <row r="598" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C598" s="3"/>
+      <c r="F598" s="4"/>
+    </row>
+    <row r="599" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C599" s="3"/>
+      <c r="F599" s="4"/>
+    </row>
+    <row r="600" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C600" s="3"/>
+      <c r="F600" s="4"/>
+    </row>
+    <row r="601" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C601" s="3"/>
+      <c r="F601" s="4"/>
+    </row>
+    <row r="602" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C602" s="3"/>
+      <c r="F602" s="4"/>
+    </row>
+    <row r="603" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C603" s="3"/>
+      <c r="F603" s="4"/>
+    </row>
+    <row r="604" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C604" s="3"/>
+      <c r="F604" s="4"/>
+    </row>
+    <row r="605" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C605" s="3"/>
+      <c r="F605" s="4"/>
+    </row>
+    <row r="606" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C606" s="3"/>
+      <c r="F606" s="4"/>
+    </row>
+    <row r="607" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C607" s="3"/>
+      <c r="F607" s="4"/>
+    </row>
+    <row r="608" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C608" s="3"/>
+      <c r="F608" s="4"/>
+    </row>
+    <row r="609" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C609" s="3"/>
+      <c r="F609" s="4"/>
+    </row>
+    <row r="610" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C610" s="3"/>
+      <c r="F610" s="4"/>
+    </row>
+    <row r="611" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C611" s="3"/>
+      <c r="F611" s="4"/>
+    </row>
+    <row r="612" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C612" s="3"/>
+      <c r="F612" s="4"/>
+    </row>
+    <row r="613" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C613" s="3"/>
+      <c r="F613" s="4"/>
+    </row>
+    <row r="614" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C614" s="3"/>
+      <c r="F614" s="4"/>
+    </row>
+    <row r="615" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C615" s="3"/>
+      <c r="F615" s="4"/>
+    </row>
+    <row r="616" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C616" s="3"/>
+      <c r="F616" s="4"/>
+    </row>
+    <row r="617" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C617" s="3"/>
+      <c r="F617" s="4"/>
+    </row>
+    <row r="618" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C618" s="3"/>
+      <c r="F618" s="4"/>
+    </row>
+    <row r="619" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C619" s="3"/>
+      <c r="F619" s="4"/>
+    </row>
+    <row r="620" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C620" s="3"/>
+      <c r="F620" s="4"/>
+    </row>
+    <row r="621" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C621" s="3"/>
+      <c r="F621" s="4"/>
+    </row>
+    <row r="622" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C622" s="3"/>
+      <c r="F622" s="4"/>
+    </row>
+    <row r="623" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C623" s="3"/>
+      <c r="F623" s="4"/>
+    </row>
+    <row r="624" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C624" s="3"/>
+      <c r="F624" s="4"/>
+    </row>
+    <row r="625" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C625" s="3"/>
+      <c r="F625" s="4"/>
+    </row>
+    <row r="626" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C626" s="3"/>
+      <c r="F626" s="4"/>
+    </row>
+    <row r="627" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C627" s="3"/>
+      <c r="F627" s="4"/>
+    </row>
+    <row r="628" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C628" s="3"/>
+      <c r="F628" s="4"/>
+    </row>
+    <row r="629" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C629" s="3"/>
+      <c r="F629" s="4"/>
+    </row>
+    <row r="630" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C630" s="3"/>
+      <c r="F630" s="4"/>
+    </row>
+    <row r="631" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C631" s="3"/>
+      <c r="F631" s="4"/>
+    </row>
+    <row r="632" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C632" s="3"/>
+      <c r="F632" s="4"/>
+    </row>
+    <row r="633" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C633" s="3"/>
+      <c r="F633" s="4"/>
+    </row>
+    <row r="634" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C634" s="3"/>
+      <c r="F634" s="4"/>
+    </row>
+    <row r="635" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C635" s="3"/>
+      <c r="F635" s="4"/>
+    </row>
+    <row r="636" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C636" s="3"/>
+      <c r="F636" s="4"/>
+    </row>
+    <row r="637" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C637" s="3"/>
+      <c r="F637" s="4"/>
+    </row>
+    <row r="638" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C638" s="3"/>
+      <c r="F638" s="4"/>
+    </row>
+    <row r="639" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C639" s="3"/>
+      <c r="F639" s="4"/>
+    </row>
+    <row r="640" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C640" s="3"/>
+      <c r="F640" s="4"/>
+    </row>
+    <row r="641" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C641" s="3"/>
+      <c r="F641" s="4"/>
+    </row>
+    <row r="642" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C642" s="3"/>
+      <c r="F642" s="4"/>
+    </row>
+    <row r="643" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C643" s="3"/>
+      <c r="F643" s="4"/>
+    </row>
+    <row r="644" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C644" s="3"/>
+      <c r="F644" s="4"/>
+    </row>
+    <row r="645" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C645" s="3"/>
+      <c r="F645" s="4"/>
+    </row>
+    <row r="646" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C646" s="3"/>
+      <c r="F646" s="4"/>
+    </row>
+    <row r="647" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C647" s="3"/>
+      <c r="F647" s="4"/>
+    </row>
+    <row r="648" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C648" s="3"/>
+      <c r="F648" s="4"/>
+    </row>
+    <row r="649" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C649" s="3"/>
+      <c r="F649" s="4"/>
+    </row>
+    <row r="650" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C650" s="3"/>
+      <c r="F650" s="4"/>
+    </row>
+    <row r="651" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C651" s="3"/>
+      <c r="F651" s="4"/>
+    </row>
+    <row r="652" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C652" s="3"/>
+      <c r="F652" s="4"/>
+    </row>
+    <row r="653" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C653" s="3"/>
+      <c r="F653" s="4"/>
+    </row>
+    <row r="654" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C654" s="3"/>
+      <c r="F654" s="4"/>
+    </row>
+    <row r="655" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C655" s="3"/>
+      <c r="F655" s="4"/>
+    </row>
+    <row r="656" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C656" s="3"/>
+      <c r="F656" s="4"/>
+    </row>
+    <row r="657" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C657" s="3"/>
+      <c r="F657" s="4"/>
+    </row>
+    <row r="658" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C658" s="3"/>
+      <c r="F658" s="4"/>
+    </row>
+    <row r="659" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C659" s="3"/>
+      <c r="F659" s="4"/>
+    </row>
+    <row r="660" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C660" s="3"/>
+      <c r="F660" s="4"/>
+    </row>
+    <row r="661" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C661" s="3"/>
+      <c r="F661" s="4"/>
+    </row>
+    <row r="662" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C662" s="3"/>
+      <c r="F662" s="4"/>
+    </row>
+    <row r="663" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C663" s="3"/>
+      <c r="F663" s="4"/>
+    </row>
+    <row r="664" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C664" s="3"/>
+      <c r="F664" s="4"/>
+    </row>
+    <row r="665" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C665" s="3"/>
+      <c r="F665" s="4"/>
+    </row>
+    <row r="666" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C666" s="3"/>
+      <c r="F666" s="4"/>
+    </row>
+    <row r="667" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C667" s="3"/>
+      <c r="F667" s="4"/>
+    </row>
+    <row r="668" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C668" s="3"/>
+      <c r="F668" s="4"/>
+    </row>
+    <row r="669" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C669" s="3"/>
+      <c r="F669" s="4"/>
+    </row>
+    <row r="670" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C670" s="3"/>
+      <c r="F670" s="4"/>
+    </row>
+    <row r="671" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C671" s="3"/>
+      <c r="F671" s="4"/>
+    </row>
+    <row r="672" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C672" s="3"/>
+      <c r="F672" s="4"/>
+    </row>
+    <row r="673" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C673" s="3"/>
+      <c r="F673" s="4"/>
+    </row>
+    <row r="674" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C674" s="3"/>
+      <c r="F674" s="4"/>
+    </row>
+    <row r="675" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C675" s="3"/>
+      <c r="F675" s="4"/>
+    </row>
+    <row r="676" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C676" s="3"/>
+      <c r="F676" s="4"/>
+    </row>
+    <row r="677" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C677" s="3"/>
+      <c r="F677" s="4"/>
+    </row>
+    <row r="678" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C678" s="3"/>
+      <c r="F678" s="4"/>
+    </row>
+    <row r="679" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C679" s="3"/>
+      <c r="F679" s="4"/>
+    </row>
+    <row r="680" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C680" s="3"/>
+      <c r="F680" s="4"/>
+    </row>
+    <row r="681" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C681" s="3"/>
+      <c r="F681" s="4"/>
+    </row>
+    <row r="682" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C682" s="3"/>
+      <c r="F682" s="4"/>
+    </row>
+    <row r="683" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C683" s="3"/>
+      <c r="F683" s="4"/>
+    </row>
+    <row r="684" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C684" s="3"/>
+      <c r="F684" s="4"/>
+    </row>
+    <row r="685" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C685" s="3"/>
+      <c r="F685" s="4"/>
+    </row>
+    <row r="686" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C686" s="3"/>
+      <c r="F686" s="4"/>
+    </row>
+    <row r="687" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C687" s="3"/>
+      <c r="F687" s="4"/>
+    </row>
+    <row r="688" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C688" s="3"/>
+      <c r="F688" s="4"/>
+    </row>
+    <row r="689" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C689" s="3"/>
+      <c r="F689" s="4"/>
+    </row>
+    <row r="690" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C690" s="3"/>
+      <c r="F690" s="4"/>
+    </row>
+    <row r="691" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C691" s="3"/>
+      <c r="F691" s="4"/>
+    </row>
+    <row r="692" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C692" s="3"/>
+      <c r="F692" s="4"/>
+    </row>
+    <row r="693" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C693" s="3"/>
+      <c r="F693" s="4"/>
+    </row>
+    <row r="694" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C694" s="3"/>
+      <c r="F694" s="4"/>
+    </row>
+    <row r="695" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C695" s="3"/>
+      <c r="F695" s="4"/>
+    </row>
+    <row r="696" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C696" s="3"/>
+      <c r="F696" s="4"/>
+    </row>
+    <row r="697" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C697" s="3"/>
+      <c r="F697" s="4"/>
+    </row>
+    <row r="698" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C698" s="3"/>
+      <c r="F698" s="4"/>
+    </row>
+    <row r="699" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C699" s="3"/>
+      <c r="F699" s="4"/>
+    </row>
+    <row r="700" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C700" s="3"/>
+      <c r="F700" s="4"/>
+    </row>
+    <row r="701" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C701" s="3"/>
+      <c r="F701" s="4"/>
+    </row>
+    <row r="702" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C702" s="3"/>
+      <c r="F702" s="4"/>
+    </row>
+    <row r="703" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C703" s="3"/>
+      <c r="F703" s="4"/>
+    </row>
+    <row r="704" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C704" s="3"/>
+      <c r="F704" s="4"/>
+    </row>
+    <row r="705" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C705" s="3"/>
+      <c r="F705" s="4"/>
+    </row>
+    <row r="706" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C706" s="3"/>
+      <c r="F706" s="4"/>
+    </row>
+    <row r="707" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C707" s="3"/>
+      <c r="F707" s="4"/>
+    </row>
+    <row r="708" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C708" s="3"/>
+      <c r="F708" s="4"/>
+    </row>
+    <row r="709" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C709" s="3"/>
+      <c r="F709" s="4"/>
+    </row>
+    <row r="710" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C710" s="3"/>
+      <c r="F710" s="4"/>
+    </row>
+    <row r="711" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C711" s="3"/>
+      <c r="F711" s="4"/>
+    </row>
+    <row r="712" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C712" s="3"/>
+      <c r="F712" s="4"/>
+    </row>
+    <row r="713" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C713" s="3"/>
+      <c r="F713" s="4"/>
+    </row>
+    <row r="714" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C714" s="3"/>
+      <c r="F714" s="4"/>
+    </row>
+    <row r="715" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C715" s="3"/>
+      <c r="F715" s="4"/>
+    </row>
+    <row r="716" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C716" s="3"/>
+      <c r="F716" s="4"/>
+    </row>
+    <row r="717" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C717" s="3"/>
+      <c r="F717" s="4"/>
+    </row>
+    <row r="718" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C718" s="3"/>
+      <c r="F718" s="4"/>
+    </row>
+    <row r="719" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C719" s="3"/>
+      <c r="F719" s="4"/>
+    </row>
+    <row r="720" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C720" s="3"/>
+      <c r="F720" s="4"/>
+    </row>
+    <row r="721" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C721" s="3"/>
+      <c r="F721" s="4"/>
+    </row>
+    <row r="722" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C722" s="3"/>
+      <c r="F722" s="4"/>
+    </row>
+    <row r="723" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C723" s="3"/>
+      <c r="F723" s="4"/>
+    </row>
+    <row r="724" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C724" s="3"/>
+      <c r="F724" s="4"/>
+    </row>
+    <row r="725" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C725" s="3"/>
+      <c r="F725" s="4"/>
+    </row>
+    <row r="726" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C726" s="3"/>
+      <c r="F726" s="4"/>
+    </row>
+    <row r="727" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C727" s="3"/>
+      <c r="F727" s="4"/>
+    </row>
+    <row r="728" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C728" s="3"/>
+      <c r="F728" s="4"/>
+    </row>
+    <row r="729" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C729" s="3"/>
+      <c r="F729" s="4"/>
+    </row>
+    <row r="730" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C730" s="3"/>
+      <c r="F730" s="4"/>
+    </row>
+    <row r="731" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C731" s="3"/>
+      <c r="F731" s="4"/>
+    </row>
+    <row r="732" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C732" s="3"/>
+      <c r="F732" s="4"/>
+    </row>
+    <row r="733" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C733" s="3"/>
+      <c r="F733" s="4"/>
+    </row>
+    <row r="734" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C734" s="3"/>
+      <c r="F734" s="4"/>
+    </row>
+    <row r="735" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C735" s="3"/>
+      <c r="F735" s="4"/>
+    </row>
+    <row r="736" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C736" s="3"/>
+      <c r="F736" s="4"/>
+    </row>
+    <row r="737" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C737" s="3"/>
+      <c r="F737" s="4"/>
+    </row>
+    <row r="738" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C738" s="3"/>
+      <c r="F738" s="4"/>
+    </row>
+    <row r="739" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C739" s="3"/>
+      <c r="F739" s="4"/>
+    </row>
+    <row r="740" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C740" s="3"/>
+      <c r="F740" s="4"/>
+    </row>
+    <row r="741" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C741" s="3"/>
+      <c r="F741" s="4"/>
+    </row>
+    <row r="742" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C742" s="3"/>
+      <c r="F742" s="4"/>
+    </row>
+    <row r="743" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C743" s="3"/>
+      <c r="F743" s="4"/>
+    </row>
+    <row r="744" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C744" s="3"/>
+      <c r="F744" s="4"/>
+    </row>
+    <row r="745" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C745" s="3"/>
+      <c r="F745" s="4"/>
+    </row>
+    <row r="746" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C746" s="3"/>
+      <c r="F746" s="4"/>
+    </row>
+    <row r="747" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C747" s="3"/>
+      <c r="F747" s="4"/>
+    </row>
+    <row r="748" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C748" s="3"/>
+      <c r="F748" s="4"/>
+    </row>
+    <row r="749" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C749" s="3"/>
+      <c r="F749" s="4"/>
+    </row>
+    <row r="750" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C750" s="3"/>
+      <c r="F750" s="4"/>
+    </row>
+    <row r="751" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C751" s="3"/>
+      <c r="F751" s="4"/>
+    </row>
+    <row r="752" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C752" s="3"/>
+      <c r="F752" s="4"/>
+    </row>
+    <row r="753" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C753" s="3"/>
+      <c r="F753" s="4"/>
+    </row>
+    <row r="754" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C754" s="3"/>
+      <c r="F754" s="4"/>
+    </row>
+    <row r="755" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C755" s="3"/>
+      <c r="F755" s="4"/>
+    </row>
+    <row r="756" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C756" s="3"/>
+      <c r="F756" s="4"/>
+    </row>
+    <row r="757" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C757" s="3"/>
+      <c r="F757" s="4"/>
+    </row>
+    <row r="758" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C758" s="3"/>
+      <c r="F758" s="4"/>
+    </row>
+    <row r="759" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C759" s="3"/>
+      <c r="F759" s="4"/>
+    </row>
+    <row r="760" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C760" s="3"/>
+      <c r="F760" s="4"/>
+    </row>
+    <row r="761" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C761" s="3"/>
+      <c r="F761" s="4"/>
+    </row>
+    <row r="762" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C762" s="3"/>
+      <c r="F762" s="4"/>
+    </row>
+    <row r="763" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C763" s="3"/>
+      <c r="F763" s="4"/>
+    </row>
+    <row r="764" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C764" s="3"/>
+      <c r="F764" s="4"/>
+    </row>
+    <row r="765" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C765" s="3"/>
+      <c r="F765" s="4"/>
+    </row>
+    <row r="766" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C766" s="3"/>
+      <c r="F766" s="4"/>
+    </row>
+    <row r="767" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C767" s="3"/>
+      <c r="F767" s="4"/>
+    </row>
+    <row r="768" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C768" s="3"/>
+      <c r="F768" s="4"/>
+    </row>
+    <row r="769" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C769" s="3"/>
+      <c r="F769" s="4"/>
+    </row>
+    <row r="770" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C770" s="3"/>
+      <c r="F770" s="4"/>
+    </row>
+    <row r="771" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C771" s="3"/>
+      <c r="F771" s="4"/>
+    </row>
+    <row r="772" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C772" s="3"/>
+      <c r="F772" s="4"/>
+    </row>
+    <row r="773" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C773" s="3"/>
+      <c r="F773" s="4"/>
+    </row>
+    <row r="774" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C774" s="3"/>
+      <c r="F774" s="4"/>
+    </row>
+    <row r="775" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C775" s="3"/>
+      <c r="F775" s="4"/>
+    </row>
+    <row r="776" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C776" s="3"/>
+      <c r="F776" s="4"/>
+    </row>
+    <row r="777" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C777" s="3"/>
+      <c r="F777" s="4"/>
+    </row>
+    <row r="778" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C778" s="3"/>
+      <c r="F778" s="4"/>
+    </row>
+    <row r="779" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C779" s="3"/>
+      <c r="F779" s="4"/>
+    </row>
+    <row r="780" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C780" s="3"/>
+      <c r="F780" s="4"/>
+    </row>
+    <row r="781" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C781" s="3"/>
+      <c r="F781" s="4"/>
+    </row>
+    <row r="782" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C782" s="3"/>
+      <c r="F782" s="4"/>
+    </row>
+    <row r="783" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C783" s="3"/>
+      <c r="F783" s="4"/>
+    </row>
+    <row r="784" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C784" s="3"/>
+      <c r="F784" s="4"/>
+    </row>
+    <row r="785" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C785" s="3"/>
+      <c r="F785" s="4"/>
+    </row>
+    <row r="786" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C786" s="3"/>
+      <c r="F786" s="4"/>
+    </row>
+    <row r="787" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C787" s="3"/>
+      <c r="F787" s="4"/>
+    </row>
+    <row r="788" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C788" s="3"/>
+      <c r="F788" s="4"/>
+    </row>
+    <row r="789" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C789" s="3"/>
+      <c r="F789" s="4"/>
+    </row>
+    <row r="790" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C790" s="3"/>
+      <c r="F790" s="4"/>
+    </row>
+    <row r="791" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C791" s="3"/>
+      <c r="F791" s="4"/>
+    </row>
+    <row r="792" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C792" s="3"/>
+      <c r="F792" s="4"/>
+    </row>
+    <row r="793" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C793" s="3"/>
+      <c r="F793" s="4"/>
+    </row>
+    <row r="794" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C794" s="3"/>
+      <c r="F794" s="4"/>
+    </row>
+    <row r="795" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C795" s="3"/>
+      <c r="F795" s="4"/>
+    </row>
+    <row r="796" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C796" s="3"/>
+      <c r="F796" s="4"/>
+    </row>
+    <row r="797" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C797" s="3"/>
+      <c r="F797" s="4"/>
+    </row>
+    <row r="798" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C798" s="3"/>
+      <c r="F798" s="4"/>
+    </row>
+    <row r="799" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C799" s="3"/>
+      <c r="F799" s="4"/>
+    </row>
+    <row r="800" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C800" s="3"/>
+      <c r="F800" s="4"/>
+    </row>
+    <row r="801" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C801" s="3"/>
+      <c r="F801" s="4"/>
+    </row>
+    <row r="802" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C802" s="3"/>
+      <c r="F802" s="4"/>
+    </row>
+    <row r="803" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C803" s="3"/>
+      <c r="F803" s="4"/>
+    </row>
+    <row r="804" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C804" s="3"/>
+      <c r="F804" s="4"/>
+    </row>
+    <row r="805" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C805" s="3"/>
+      <c r="F805" s="4"/>
+    </row>
+    <row r="806" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C806" s="3"/>
+      <c r="F806" s="4"/>
+    </row>
+    <row r="807" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C807" s="3"/>
+      <c r="F807" s="4"/>
+    </row>
+    <row r="808" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C808" s="3"/>
+      <c r="F808" s="4"/>
+    </row>
+    <row r="809" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C809" s="3"/>
+      <c r="F809" s="4"/>
+    </row>
+    <row r="810" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C810" s="3"/>
+      <c r="F810" s="4"/>
+    </row>
+    <row r="811" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C811" s="3"/>
+      <c r="F811" s="4"/>
+    </row>
+    <row r="812" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C812" s="3"/>
+      <c r="F812" s="4"/>
+    </row>
+    <row r="813" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C813" s="3"/>
+      <c r="F813" s="4"/>
+    </row>
+    <row r="814" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C814" s="3"/>
+      <c r="F814" s="4"/>
+    </row>
+    <row r="815" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C815" s="3"/>
+      <c r="F815" s="4"/>
+    </row>
+    <row r="816" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C816" s="3"/>
+      <c r="F816" s="4"/>
+    </row>
+    <row r="817" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C817" s="3"/>
+      <c r="F817" s="4"/>
+    </row>
+    <row r="818" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C818" s="3"/>
+      <c r="F818" s="4"/>
+    </row>
+    <row r="819" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C819" s="3"/>
+      <c r="F819" s="4"/>
+    </row>
+    <row r="820" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C820" s="3"/>
+      <c r="F820" s="4"/>
+    </row>
+    <row r="821" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C821" s="3"/>
+      <c r="F821" s="4"/>
+    </row>
+    <row r="822" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C822" s="3"/>
+      <c r="F822" s="4"/>
+    </row>
+    <row r="823" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C823" s="3"/>
+      <c r="F823" s="4"/>
+    </row>
+    <row r="824" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C824" s="3"/>
+      <c r="F824" s="4"/>
+    </row>
+    <row r="825" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C825" s="3"/>
+      <c r="F825" s="4"/>
+    </row>
+    <row r="826" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C826" s="3"/>
+      <c r="F826" s="4"/>
+    </row>
+    <row r="827" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C827" s="3"/>
+      <c r="F827" s="4"/>
+    </row>
+    <row r="828" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C828" s="3"/>
+      <c r="F828" s="4"/>
+    </row>
+    <row r="829" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C829" s="3"/>
+      <c r="F829" s="4"/>
+    </row>
+    <row r="830" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C830" s="3"/>
+      <c r="F830" s="4"/>
+    </row>
+    <row r="831" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C831" s="3"/>
+      <c r="F831" s="4"/>
+    </row>
+    <row r="832" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C832" s="3"/>
+      <c r="F832" s="4"/>
+    </row>
+    <row r="833" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C833" s="3"/>
+      <c r="F833" s="4"/>
+    </row>
+    <row r="834" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C834" s="3"/>
+      <c r="F834" s="4"/>
+    </row>
+    <row r="835" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C835" s="3"/>
+      <c r="F835" s="4"/>
+    </row>
+    <row r="836" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C836" s="3"/>
+      <c r="F836" s="4"/>
+    </row>
+    <row r="837" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C837" s="3"/>
+      <c r="F837" s="4"/>
+    </row>
+    <row r="838" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C838" s="3"/>
+      <c r="F838" s="4"/>
+    </row>
+    <row r="839" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C839" s="3"/>
+      <c r="F839" s="4"/>
+    </row>
+    <row r="840" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C840" s="3"/>
+      <c r="F840" s="4"/>
+    </row>
+    <row r="841" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C841" s="3"/>
+      <c r="F841" s="4"/>
+    </row>
+    <row r="842" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C842" s="3"/>
+      <c r="F842" s="4"/>
+    </row>
+    <row r="843" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C843" s="3"/>
+      <c r="F843" s="4"/>
+    </row>
+    <row r="844" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C844" s="3"/>
+      <c r="F844" s="4"/>
+    </row>
+    <row r="845" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C845" s="3"/>
+      <c r="F845" s="4"/>
+    </row>
+    <row r="846" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C846" s="3"/>
+      <c r="F846" s="4"/>
+    </row>
+    <row r="847" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C847" s="3"/>
+      <c r="F847" s="4"/>
+    </row>
+    <row r="848" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C848" s="3"/>
+      <c r="F848" s="4"/>
+    </row>
+    <row r="849" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C849" s="3"/>
+      <c r="F849" s="4"/>
+    </row>
+    <row r="850" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C850" s="3"/>
+      <c r="F850" s="4"/>
+    </row>
+    <row r="851" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C851" s="3"/>
+      <c r="F851" s="4"/>
+    </row>
+    <row r="852" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C852" s="3"/>
+      <c r="F852" s="4"/>
+    </row>
+    <row r="853" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C853" s="3"/>
+      <c r="F853" s="4"/>
+    </row>
+    <row r="854" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C854" s="3"/>
+      <c r="F854" s="4"/>
+    </row>
+    <row r="855" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C855" s="3"/>
+      <c r="F855" s="4"/>
+    </row>
+    <row r="856" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C856" s="3"/>
+      <c r="F856" s="4"/>
+    </row>
+    <row r="857" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C857" s="3"/>
+      <c r="F857" s="4"/>
+    </row>
+    <row r="858" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C858" s="3"/>
+      <c r="F858" s="4"/>
+    </row>
+    <row r="859" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C859" s="3"/>
+      <c r="F859" s="4"/>
+    </row>
+    <row r="860" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C860" s="3"/>
+      <c r="F860" s="4"/>
+    </row>
+    <row r="861" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C861" s="3"/>
+      <c r="F861" s="4"/>
+    </row>
+    <row r="862" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C862" s="3"/>
+      <c r="F862" s="4"/>
+    </row>
+    <row r="863" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C863" s="3"/>
+      <c r="F863" s="4"/>
+    </row>
+    <row r="864" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C864" s="3"/>
+      <c r="F864" s="4"/>
+    </row>
+    <row r="865" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C865" s="3"/>
+      <c r="F865" s="4"/>
+    </row>
+    <row r="866" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C866" s="3"/>
+      <c r="F866" s="4"/>
+    </row>
+    <row r="867" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C867" s="3"/>
+      <c r="F867" s="4"/>
+    </row>
+    <row r="868" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C868" s="3"/>
+      <c r="F868" s="4"/>
+    </row>
+    <row r="869" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C869" s="3"/>
+      <c r="F869" s="4"/>
+    </row>
+    <row r="870" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C870" s="3"/>
+      <c r="F870" s="4"/>
+    </row>
+    <row r="871" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C871" s="3"/>
+      <c r="F871" s="4"/>
+    </row>
+    <row r="872" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C872" s="3"/>
+      <c r="F872" s="4"/>
+    </row>
+    <row r="873" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C873" s="3"/>
+      <c r="F873" s="4"/>
+    </row>
+    <row r="874" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C874" s="3"/>
+      <c r="F874" s="4"/>
+    </row>
+    <row r="875" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C875" s="3"/>
+      <c r="F875" s="4"/>
+    </row>
+    <row r="876" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C876" s="3"/>
+      <c r="F876" s="4"/>
+    </row>
+    <row r="877" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C877" s="3"/>
+      <c r="F877" s="4"/>
+    </row>
+    <row r="878" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C878" s="3"/>
+      <c r="F878" s="4"/>
+    </row>
+    <row r="879" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C879" s="3"/>
+      <c r="F879" s="4"/>
+    </row>
+    <row r="880" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C880" s="3"/>
+      <c r="F880" s="4"/>
+    </row>
+    <row r="881" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C881" s="3"/>
+      <c r="F881" s="4"/>
+    </row>
+    <row r="882" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C882" s="3"/>
+      <c r="F882" s="4"/>
+    </row>
+    <row r="883" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C883" s="3"/>
+      <c r="F883" s="4"/>
+    </row>
+    <row r="884" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C884" s="3"/>
+      <c r="F884" s="4"/>
+    </row>
+    <row r="885" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C885" s="3"/>
+      <c r="F885" s="4"/>
+    </row>
+    <row r="886" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C886" s="3"/>
+      <c r="F886" s="4"/>
+    </row>
+    <row r="887" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C887" s="3"/>
+      <c r="F887" s="4"/>
+    </row>
+    <row r="888" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C888" s="3"/>
+      <c r="F888" s="4"/>
+    </row>
+    <row r="889" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C889" s="3"/>
+      <c r="F889" s="4"/>
+    </row>
+    <row r="890" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C890" s="3"/>
+      <c r="F890" s="4"/>
+    </row>
+    <row r="891" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C891" s="3"/>
+      <c r="F891" s="4"/>
+    </row>
+    <row r="892" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C892" s="3"/>
+      <c r="F892" s="4"/>
+    </row>
+    <row r="893" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C893" s="3"/>
+      <c r="F893" s="4"/>
+    </row>
+    <row r="894" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C894" s="3"/>
+      <c r="F894" s="4"/>
+    </row>
+    <row r="895" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C895" s="3"/>
+      <c r="F895" s="4"/>
+    </row>
+    <row r="896" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C896" s="3"/>
+      <c r="F896" s="4"/>
+    </row>
+    <row r="897" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C897" s="3"/>
+      <c r="F897" s="4"/>
+    </row>
+    <row r="898" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C898" s="3"/>
+      <c r="F898" s="4"/>
+    </row>
+    <row r="899" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C899" s="3"/>
+      <c r="F899" s="4"/>
+    </row>
+    <row r="900" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C900" s="3"/>
+      <c r="F900" s="4"/>
+    </row>
+    <row r="901" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C901" s="3"/>
+      <c r="F901" s="4"/>
+    </row>
+    <row r="902" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C902" s="3"/>
+      <c r="F902" s="4"/>
+    </row>
+    <row r="903" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C903" s="3"/>
+      <c r="F903" s="4"/>
+    </row>
+    <row r="904" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C904" s="3"/>
+      <c r="F904" s="4"/>
+    </row>
+    <row r="905" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C905" s="3"/>
+      <c r="F905" s="4"/>
+    </row>
+    <row r="906" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C906" s="3"/>
+      <c r="F906" s="4"/>
+    </row>
+    <row r="907" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C907" s="3"/>
+      <c r="F907" s="4"/>
+    </row>
+    <row r="908" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C908" s="3"/>
+      <c r="F908" s="4"/>
+    </row>
+    <row r="909" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C909" s="3"/>
+      <c r="F909" s="4"/>
+    </row>
+    <row r="910" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C910" s="3"/>
+      <c r="F910" s="4"/>
+    </row>
+    <row r="911" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C911" s="3"/>
+      <c r="F911" s="4"/>
+    </row>
+    <row r="912" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C912" s="3"/>
+      <c r="F912" s="4"/>
+    </row>
+    <row r="913" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C913" s="3"/>
+      <c r="F913" s="4"/>
+    </row>
+    <row r="914" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C914" s="3"/>
+      <c r="F914" s="4"/>
+    </row>
+    <row r="915" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C915" s="3"/>
+      <c r="F915" s="4"/>
+    </row>
+    <row r="916" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C916" s="3"/>
+      <c r="F916" s="4"/>
+    </row>
+    <row r="917" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C917" s="3"/>
+      <c r="F917" s="4"/>
+    </row>
+    <row r="918" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C918" s="3"/>
+      <c r="F918" s="4"/>
+    </row>
+    <row r="919" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C919" s="3"/>
+      <c r="F919" s="4"/>
+    </row>
+    <row r="920" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C920" s="3"/>
+      <c r="F920" s="4"/>
+    </row>
+    <row r="921" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C921" s="3"/>
+      <c r="F921" s="4"/>
+    </row>
+    <row r="922" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C922" s="3"/>
+      <c r="F922" s="4"/>
+    </row>
+    <row r="923" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C923" s="3"/>
+      <c r="F923" s="4"/>
+    </row>
+    <row r="924" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C924" s="3"/>
+      <c r="F924" s="4"/>
+    </row>
+    <row r="925" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C925" s="3"/>
+      <c r="F925" s="4"/>
+    </row>
+    <row r="926" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C926" s="3"/>
+      <c r="F926" s="4"/>
+    </row>
+    <row r="927" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C927" s="3"/>
+      <c r="F927" s="4"/>
+    </row>
+    <row r="928" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C928" s="3"/>
+      <c r="F928" s="4"/>
+    </row>
+    <row r="929" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C929" s="3"/>
+      <c r="F929" s="4"/>
+    </row>
+    <row r="930" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C930" s="3"/>
+      <c r="F930" s="4"/>
+    </row>
+    <row r="931" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C931" s="3"/>
+      <c r="F931" s="4"/>
+    </row>
+    <row r="932" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C932" s="3"/>
+      <c r="F932" s="4"/>
+    </row>
+    <row r="933" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C933" s="3"/>
+      <c r="F933" s="4"/>
+    </row>
+    <row r="934" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C934" s="3"/>
+      <c r="F934" s="4"/>
+    </row>
+    <row r="935" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C935" s="3"/>
+      <c r="F935" s="4"/>
+    </row>
+    <row r="936" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C936" s="3"/>
+      <c r="F936" s="4"/>
+    </row>
+    <row r="937" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C937" s="3"/>
+      <c r="F937" s="4"/>
+    </row>
+    <row r="938" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C938" s="3"/>
+      <c r="F938" s="4"/>
+    </row>
+    <row r="939" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C939" s="3"/>
+      <c r="F939" s="4"/>
+    </row>
+    <row r="940" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C940" s="3"/>
+      <c r="F940" s="4"/>
+    </row>
+    <row r="941" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C941" s="3"/>
+      <c r="F941" s="4"/>
+    </row>
+    <row r="942" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C942" s="3"/>
+      <c r="F942" s="4"/>
+    </row>
+    <row r="943" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C943" s="3"/>
+      <c r="F943" s="4"/>
+    </row>
+    <row r="944" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C944" s="3"/>
+      <c r="F944" s="4"/>
+    </row>
+    <row r="945" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C945" s="3"/>
+      <c r="F945" s="4"/>
+    </row>
+    <row r="946" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C946" s="3"/>
+      <c r="F946" s="4"/>
+    </row>
+    <row r="947" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C947" s="3"/>
+      <c r="F947" s="4"/>
+    </row>
+    <row r="948" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C948" s="3"/>
+      <c r="F948" s="4"/>
+    </row>
+    <row r="949" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C949" s="3"/>
+      <c r="F949" s="4"/>
+    </row>
+    <row r="950" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C950" s="3"/>
+      <c r="F950" s="4"/>
+    </row>
+    <row r="951" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C951" s="3"/>
+      <c r="F951" s="4"/>
+    </row>
+    <row r="952" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C952" s="3"/>
+      <c r="F952" s="4"/>
+    </row>
+    <row r="953" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C953" s="3"/>
+      <c r="F953" s="4"/>
+    </row>
+    <row r="954" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C954" s="3"/>
+      <c r="F954" s="4"/>
+    </row>
+    <row r="955" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C955" s="3"/>
+      <c r="F955" s="4"/>
+    </row>
+    <row r="956" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C956" s="3"/>
+      <c r="F956" s="4"/>
+    </row>
+    <row r="957" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C957" s="3"/>
+      <c r="F957" s="4"/>
+    </row>
+    <row r="958" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C958" s="3"/>
+      <c r="F958" s="4"/>
+    </row>
+    <row r="959" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C959" s="3"/>
+      <c r="F959" s="4"/>
+    </row>
+    <row r="960" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C960" s="3"/>
+      <c r="F960" s="4"/>
+    </row>
+    <row r="961" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C961" s="3"/>
+      <c r="F961" s="4"/>
+    </row>
+    <row r="962" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C962" s="3"/>
+      <c r="F962" s="4"/>
+    </row>
+    <row r="963" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C963" s="3"/>
+      <c r="F963" s="4"/>
+    </row>
+    <row r="964" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C964" s="3"/>
+      <c r="F964" s="4"/>
+    </row>
+    <row r="965" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C965" s="3"/>
+      <c r="F965" s="4"/>
+    </row>
+    <row r="966" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C966" s="3"/>
+      <c r="F966" s="4"/>
+    </row>
+    <row r="967" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C967" s="3"/>
+      <c r="F967" s="4"/>
+    </row>
+    <row r="968" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C968" s="3"/>
+      <c r="F968" s="4"/>
+    </row>
+    <row r="969" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C969" s="3"/>
+      <c r="F969" s="4"/>
+    </row>
+    <row r="970" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C970" s="3"/>
+      <c r="F970" s="4"/>
+    </row>
+    <row r="971" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C971" s="3"/>
+      <c r="F971" s="4"/>
+    </row>
+    <row r="972" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C972" s="3"/>
+      <c r="F972" s="4"/>
+    </row>
+    <row r="973" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C973" s="3"/>
+      <c r="F973" s="4"/>
+    </row>
+    <row r="974" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C974" s="3"/>
+      <c r="F974" s="4"/>
+    </row>
+    <row r="975" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C975" s="3"/>
+      <c r="F975" s="4"/>
+    </row>
+    <row r="976" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C976" s="3"/>
+      <c r="F976" s="4"/>
+    </row>
+    <row r="977" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C977" s="3"/>
+      <c r="F977" s="4"/>
+    </row>
+    <row r="978" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C978" s="3"/>
+      <c r="F978" s="4"/>
+    </row>
+    <row r="979" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C979" s="3"/>
+      <c r="F979" s="4"/>
+    </row>
+    <row r="980" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C980" s="3"/>
+      <c r="F980" s="4"/>
+    </row>
+    <row r="981" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C981" s="3"/>
+      <c r="F981" s="4"/>
+    </row>
+    <row r="982" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C982" s="3"/>
+      <c r="F982" s="4"/>
+    </row>
+    <row r="983" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C983" s="3"/>
+      <c r="F983" s="4"/>
+    </row>
+    <row r="984" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C984" s="3"/>
+      <c r="F984" s="4"/>
+    </row>
+    <row r="985" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C985" s="3"/>
+      <c r="F985" s="4"/>
+    </row>
+    <row r="986" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C986" s="3"/>
+      <c r="F986" s="4"/>
+    </row>
+    <row r="987" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C987" s="3"/>
+      <c r="F987" s="4"/>
+    </row>
+    <row r="988" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C988" s="3"/>
+      <c r="F988" s="4"/>
+    </row>
+    <row r="989" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C989" s="3"/>
+      <c r="F989" s="4"/>
+    </row>
+    <row r="990" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C990" s="3"/>
+      <c r="F990" s="4"/>
+    </row>
+    <row r="991" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C991" s="3"/>
+      <c r="F991" s="4"/>
+    </row>
+    <row r="992" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C992" s="3"/>
+      <c r="F992" s="4"/>
+    </row>
+    <row r="993" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C993" s="3"/>
+      <c r="F993" s="4"/>
+    </row>
+    <row r="994" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C994" s="3"/>
+      <c r="F994" s="4"/>
+    </row>
+    <row r="995" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C995" s="3"/>
+      <c r="F995" s="4"/>
+    </row>
+    <row r="996" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C996" s="3"/>
+      <c r="F996" s="4"/>
+    </row>
+    <row r="997" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C997" s="3"/>
+      <c r="F997" s="4"/>
+    </row>
+    <row r="998" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C998" s="3"/>
+      <c r="F998" s="4"/>
+    </row>
+    <row r="999" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C999" s="3"/>
+      <c r="F999" s="4"/>
+    </row>
+    <row r="1000" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C1000" s="3"/>
+      <c r="F1000" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/zone-template/Zone_Template.xlsx
+++ b/server/zone-template/Zone_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuongh\AppData\Roaming\Skype\My Skype Received Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A40087EF-7F2C-4CCD-B453-1568D3AA0ADB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F80BACE9-0E0D-4F35-8D34-2BEC66E82BCC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="193">
   <si>
     <t>id</t>
   </si>
@@ -456,9 +456,6 @@
     <t>Chert2</t>
   </si>
   <si>
-    <t>Plus</t>
-  </si>
-  <si>
     <t>Alunite</t>
   </si>
   <si>
@@ -604,6 +601,9 @@
   </si>
   <si>
     <t>Shale laminated</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -724,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -773,6 +773,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1053,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1069,7 +1070,7 @@
     <col min="6" max="6" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1089,7 +1090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1106,10 +1107,13 @@
         <v>8</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" thickBot="1">
+        <v>9</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1129,7 +1133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1149,7 +1153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5" thickBot="1">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1157,7 +1161,7 @@
         <v>118</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -1169,7 +1173,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1">
+    <row r="6" spans="1:7" ht="16.5" thickBot="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1177,7 +1181,7 @@
         <v>118</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
@@ -1189,7 +1193,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" thickBot="1">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1197,7 +1201,7 @@
         <v>118</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
@@ -1209,7 +1213,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" thickBot="1">
+    <row r="8" spans="1:7" ht="16.5" thickBot="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1217,7 +1221,7 @@
         <v>118</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
@@ -1229,7 +1233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" thickBot="1">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1237,7 +1241,7 @@
         <v>118</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
@@ -1249,7 +1253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" thickBot="1">
+    <row r="10" spans="1:7" ht="16.5" thickBot="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1269,7 +1273,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" thickBot="1">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1277,7 +1281,7 @@
         <v>118</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>26</v>
@@ -1289,7 +1293,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1">
+    <row r="12" spans="1:7" ht="16.5" thickBot="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1297,7 +1301,7 @@
         <v>118</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>28</v>
@@ -1309,7 +1313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.5" thickBot="1">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1317,7 +1321,7 @@
         <v>118</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>29</v>
@@ -1329,7 +1333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" thickBot="1">
+    <row r="14" spans="1:7" ht="16.5" thickBot="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1349,7 +1353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.5" thickBot="1">
+    <row r="15" spans="1:7" ht="16.5" thickBot="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1369,7 +1373,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.5" thickBot="1">
+    <row r="16" spans="1:7" ht="16.5" thickBot="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1537,7 +1541,7 @@
         <v>118</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>56</v>
@@ -1557,7 +1561,7 @@
         <v>118</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>58</v>
@@ -1577,7 +1581,7 @@
         <v>118</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>58</v>
@@ -1597,7 +1601,7 @@
         <v>118</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>59</v>
@@ -1637,7 +1641,7 @@
         <v>118</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>61</v>
@@ -1697,7 +1701,7 @@
         <v>118</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>67</v>
@@ -1709,7 +1713,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16.5" thickBot="1">
+    <row r="33" spans="1:7" ht="16.5" thickBot="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1717,7 +1721,7 @@
         <v>118</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>70</v>
@@ -1729,7 +1733,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16.5" thickBot="1">
+    <row r="34" spans="1:7" ht="16.5" thickBot="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1749,7 +1753,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16.5" thickBot="1">
+    <row r="35" spans="1:7" ht="16.5" thickBot="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1757,7 +1761,7 @@
         <v>118</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>67</v>
@@ -1769,7 +1773,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="16.5" thickBot="1">
+    <row r="36" spans="1:7" ht="16.5" thickBot="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1777,7 +1781,7 @@
         <v>118</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>67</v>
@@ -1789,7 +1793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="16.5" thickBot="1">
+    <row r="37" spans="1:7" ht="16.5" thickBot="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1797,7 +1801,7 @@
         <v>118</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>67</v>
@@ -1809,7 +1813,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="16.5" thickBot="1">
+    <row r="38" spans="1:7" ht="16.5" thickBot="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1817,7 +1821,7 @@
         <v>118</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>67</v>
@@ -1829,7 +1833,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="16.5" thickBot="1">
+    <row r="39" spans="1:7" ht="16.5" thickBot="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1837,7 +1841,7 @@
         <v>118</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>67</v>
@@ -1849,7 +1853,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="16.5" thickBot="1">
+    <row r="40" spans="1:7" ht="16.5" thickBot="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1857,7 +1861,7 @@
         <v>118</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>76</v>
@@ -1869,7 +1873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="16.5" thickBot="1">
+    <row r="41" spans="1:7" ht="16.5" thickBot="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1877,7 +1881,7 @@
         <v>118</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>67</v>
@@ -1889,7 +1893,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="16.5" thickBot="1">
+    <row r="42" spans="1:7" ht="16.5" thickBot="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1909,7 +1913,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="16.5" thickBot="1">
+    <row r="43" spans="1:7" ht="16.5" thickBot="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1929,7 +1933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="16.5" thickBot="1">
+    <row r="44" spans="1:7" ht="16.5" thickBot="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1948,8 +1952,11 @@
       <c r="F44" s="7" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="16.5" thickBot="1">
+      <c r="G44" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="16.5" thickBot="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1957,7 +1964,7 @@
         <v>118</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>84</v>
@@ -1969,7 +1976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="16.5" thickBot="1">
+    <row r="46" spans="1:7" ht="16.5" thickBot="1">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1977,7 +1984,7 @@
         <v>118</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>29</v>
@@ -1988,8 +1995,11 @@
       <c r="F46" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="16.5" thickBot="1">
+      <c r="G46" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="16.5" thickBot="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1997,7 +2007,7 @@
         <v>118</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>47</v>
@@ -2009,7 +2019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="16.5" thickBot="1">
+    <row r="48" spans="1:7" ht="16.5" thickBot="1">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2029,7 +2039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="16.5" thickBot="1">
+    <row r="49" spans="1:7" ht="16.5" thickBot="1">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2049,7 +2059,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="16.5" thickBot="1">
+    <row r="50" spans="1:7" ht="16.5" thickBot="1">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2069,7 +2079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="16.5" thickBot="1">
+    <row r="51" spans="1:7" ht="16.5" thickBot="1">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2077,7 +2087,7 @@
         <v>118</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>71</v>
@@ -2089,7 +2099,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="16.5" thickBot="1">
+    <row r="52" spans="1:7" ht="16.5" thickBot="1">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2097,7 +2107,7 @@
         <v>118</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>47</v>
@@ -2109,7 +2119,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="16.5" thickBot="1">
+    <row r="53" spans="1:7" ht="16.5" thickBot="1">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2117,7 +2127,7 @@
         <v>118</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>89</v>
@@ -2129,7 +2139,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="16.5" thickBot="1">
+    <row r="54" spans="1:7" ht="16.5" thickBot="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2137,7 +2147,7 @@
         <v>118</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>59</v>
@@ -2148,8 +2158,11 @@
       <c r="F54" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="16.5" thickBot="1">
+      <c r="G54" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="16.5" thickBot="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2157,7 +2170,7 @@
         <v>118</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>90</v>
@@ -2169,7 +2182,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="16.5" thickBot="1">
+    <row r="56" spans="1:7" ht="16.5" thickBot="1">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2177,7 +2190,7 @@
         <v>118</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>49</v>
@@ -2188,8 +2201,11 @@
       <c r="F56" s="7" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" thickBot="1">
+      <c r="G56" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" thickBot="1">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2209,7 +2225,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" thickBot="1">
+    <row r="58" spans="1:7" ht="15.75" thickBot="1">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2229,7 +2245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="16.5" thickBot="1">
+    <row r="59" spans="1:7" ht="16.5" thickBot="1">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2249,7 +2265,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="16.5" thickBot="1">
+    <row r="60" spans="1:7" ht="16.5" thickBot="1">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2269,7 +2285,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1">
+    <row r="61" spans="1:7" ht="15.75" thickBot="1">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2289,7 +2305,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="16.5" thickBot="1">
+    <row r="62" spans="1:7" ht="16.5" thickBot="1">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2297,7 +2313,7 @@
         <v>118</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>99</v>
@@ -2309,7 +2325,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="16.5" thickBot="1">
+    <row r="63" spans="1:7" ht="16.5" thickBot="1">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2317,7 +2333,7 @@
         <v>118</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>99</v>
@@ -2329,7 +2345,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="16.5" thickBot="1">
+    <row r="64" spans="1:7" ht="16.5" thickBot="1">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2337,7 +2353,7 @@
         <v>118</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>100</v>
@@ -2349,7 +2365,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="16.5" thickBot="1">
+    <row r="65" spans="1:7" ht="16.5" thickBot="1">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2357,7 +2373,7 @@
         <v>118</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>101</v>
@@ -2369,7 +2385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="16.5" thickBot="1">
+    <row r="66" spans="1:7" ht="16.5" thickBot="1">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2389,7 +2405,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="16.5" thickBot="1">
+    <row r="67" spans="1:7" ht="16.5" thickBot="1">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2409,7 +2425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="16.5" thickBot="1">
+    <row r="68" spans="1:7" ht="16.5" thickBot="1">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2429,7 +2445,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="16.5" thickBot="1">
+    <row r="69" spans="1:7" ht="16.5" thickBot="1">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2437,7 +2453,7 @@
         <v>118</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>106</v>
@@ -2449,7 +2465,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="16.5" thickBot="1">
+    <row r="70" spans="1:7" ht="16.5" thickBot="1">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2457,7 +2473,7 @@
         <v>118</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>65</v>
@@ -2469,7 +2485,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="16.5" thickBot="1">
+    <row r="71" spans="1:7" ht="16.5" thickBot="1">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2477,7 +2493,7 @@
         <v>118</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>107</v>
@@ -2489,7 +2505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="16.5" thickBot="1">
+    <row r="72" spans="1:7" ht="16.5" thickBot="1">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2497,7 +2513,7 @@
         <v>118</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>108</v>
@@ -2509,7 +2525,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="16.5" thickBot="1">
+    <row r="73" spans="1:7" ht="16.5" thickBot="1">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2517,7 +2533,7 @@
         <v>118</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>109</v>
@@ -2528,8 +2544,11 @@
       <c r="F73" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="16.5" thickBot="1">
+      <c r="G73" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="16.5" thickBot="1">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2537,7 +2556,7 @@
         <v>118</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>110</v>
@@ -2549,7 +2568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="16.5" thickBot="1">
+    <row r="75" spans="1:7" ht="16.5" thickBot="1">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2557,7 +2576,7 @@
         <v>118</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>103</v>
@@ -2569,7 +2588,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="16.5" thickBot="1">
+    <row r="76" spans="1:7" ht="16.5" thickBot="1">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2588,8 +2607,11 @@
       <c r="F76" s="4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="16.5" thickBot="1">
+      <c r="G76" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="16.5" thickBot="1">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2597,7 +2619,7 @@
         <v>118</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>113</v>
@@ -2609,7 +2631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="16.5" thickBot="1">
+    <row r="78" spans="1:7" ht="16.5" thickBot="1">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2617,7 +2639,7 @@
         <v>118</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>114</v>
@@ -2629,7 +2651,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="16.5" thickBot="1">
+    <row r="79" spans="1:7" ht="16.5" thickBot="1">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2649,7 +2671,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="16.5" thickBot="1">
+    <row r="80" spans="1:7" ht="16.5" thickBot="1">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2657,7 +2679,7 @@
         <v>118</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>31</v>
@@ -2669,7 +2691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="16.5" thickBot="1">
+    <row r="81" spans="1:7" ht="16.5" thickBot="1">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2689,7 +2711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="16.5" thickBot="1">
+    <row r="82" spans="1:7" ht="16.5" thickBot="1">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2697,7 +2719,7 @@
         <v>118</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>99</v>
@@ -2709,7 +2731,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="16.5" thickBot="1">
+    <row r="83" spans="1:7" ht="16.5" thickBot="1">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2717,7 +2739,7 @@
         <v>118</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>99</v>
@@ -2729,7 +2751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="16.5" thickBot="1">
+    <row r="84" spans="1:7" ht="16.5" thickBot="1">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2737,7 +2759,7 @@
         <v>118</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>49</v>
@@ -2749,7 +2771,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="16.5" thickBot="1">
+    <row r="85" spans="1:7" ht="16.5" thickBot="1">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2757,7 +2779,7 @@
         <v>118</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>31</v>
@@ -2769,7 +2791,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="16.5" thickBot="1">
+    <row r="86" spans="1:7" ht="16.5" thickBot="1">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2789,7 +2811,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="16.5" thickBot="1">
+    <row r="87" spans="1:7" ht="16.5" thickBot="1">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2808,8 +2830,11 @@
       <c r="F87" s="11" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="16.5" thickBot="1">
+      <c r="G87" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="16.5" thickBot="1">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2829,7 +2854,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="16.5" thickBot="1">
+    <row r="89" spans="1:7" ht="16.5" thickBot="1">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2849,7 +2874,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="16.5" thickBot="1">
+    <row r="90" spans="1:7" ht="16.5" thickBot="1">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2869,7 +2894,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.75" thickBot="1">
+    <row r="91" spans="1:7" ht="15.75" thickBot="1">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2889,23 +2914,23 @@
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.75" thickBot="1">
+    <row r="92" spans="1:7" ht="15.75" thickBot="1">
       <c r="C92" s="4"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="1:6" ht="16.5" thickBot="1">
+    <row r="93" spans="1:7" ht="16.5" thickBot="1">
       <c r="C93" s="11"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="1:6" ht="16.5" thickBot="1">
+    <row r="94" spans="1:7" ht="16.5" thickBot="1">
       <c r="C94" s="11"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="1:6" ht="16.5" thickBot="1">
+    <row r="95" spans="1:7" ht="16.5" thickBot="1">
       <c r="C95" s="11"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="1:6" ht="16.5" thickBot="1">
+    <row r="96" spans="1:7" ht="16.5" thickBot="1">
       <c r="C96" s="11"/>
       <c r="F96" s="4"/>
     </row>

--- a/server/zone-template/Zone_Template.xlsx
+++ b/server/zone-template/Zone_Template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuongh\AppData\Roaming\Skype\My Skype Received Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\wi-backend\server\zone-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F80BACE9-0E0D-4F35-8D34-2BEC66E82BCC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="zone_template" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="194">
   <si>
     <t>id</t>
   </si>
@@ -604,12 +603,15 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>order_num</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -1053,11 +1055,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M77" sqref="M77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1068,9 +1070,10 @@
     <col min="4" max="4" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1089,8 +1092,11 @@
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G1" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" thickBot="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1109,11 +1115,14 @@
       <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" thickBot="1">
+    <row r="3" spans="1:8" ht="16.5" thickBot="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1132,8 +1141,11 @@
       <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" thickBot="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1152,8 +1164,11 @@
       <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" thickBot="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1172,8 +1187,11 @@
       <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" thickBot="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1192,8 +1210,11 @@
       <c r="F6" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" thickBot="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1212,8 +1233,11 @@
       <c r="F7" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" thickBot="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1232,8 +1256,11 @@
       <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" thickBot="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1252,8 +1279,11 @@
       <c r="F9" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" thickBot="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1272,8 +1302,11 @@
       <c r="F10" s="7" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1292,8 +1325,11 @@
       <c r="F11" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" thickBot="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1312,8 +1348,11 @@
       <c r="F12" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickBot="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1332,8 +1371,11 @@
       <c r="F13" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" thickBot="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1352,8 +1394,11 @@
       <c r="F14" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G14" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" thickBot="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1372,8 +1417,11 @@
       <c r="F15" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G15" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" thickBot="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1392,8 +1440,11 @@
       <c r="F16" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1">
+      <c r="G16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" thickBot="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1412,8 +1463,11 @@
       <c r="F17" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1">
+      <c r="G17" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" thickBot="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1432,8 +1486,11 @@
       <c r="F18" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" thickBot="1">
+      <c r="G18" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" thickBot="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1452,8 +1509,11 @@
       <c r="F19" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1">
+      <c r="G19" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1472,8 +1532,11 @@
       <c r="F20" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" thickBot="1">
+      <c r="G20" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" thickBot="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1492,8 +1555,11 @@
       <c r="F21" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" thickBot="1">
+      <c r="G21" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" thickBot="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1512,8 +1578,11 @@
       <c r="F22" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1">
+      <c r="G22" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1532,8 +1601,11 @@
       <c r="F23" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" thickBot="1">
+      <c r="G23" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" thickBot="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1552,8 +1624,11 @@
       <c r="F24" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" thickBot="1">
+      <c r="G24" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" thickBot="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1572,8 +1647,11 @@
       <c r="F25" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" thickBot="1">
+      <c r="G25" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" thickBot="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1592,8 +1670,11 @@
       <c r="F26" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="16.5" thickBot="1">
+      <c r="G26" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" thickBot="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1612,8 +1693,11 @@
       <c r="F27" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" thickBot="1">
+      <c r="G27" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" thickBot="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1632,8 +1716,11 @@
       <c r="F28" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="16.5" thickBot="1">
+      <c r="G28" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" thickBot="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1652,8 +1739,11 @@
       <c r="F29" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" thickBot="1">
+      <c r="G29" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" thickBot="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1672,8 +1762,11 @@
       <c r="F30" s="7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" ht="16.5" thickBot="1">
+      <c r="G30" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="16.5" thickBot="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1692,8 +1785,11 @@
       <c r="F31" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="16.5" thickBot="1">
+      <c r="G31" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16.5" thickBot="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1712,8 +1808,11 @@
       <c r="F32" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G32" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" thickBot="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1732,8 +1831,11 @@
       <c r="F33" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G33" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" thickBot="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1752,8 +1854,11 @@
       <c r="F34" s="8" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G34" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" thickBot="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1772,8 +1877,11 @@
       <c r="F35" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G35" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" thickBot="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1792,8 +1900,11 @@
       <c r="F36" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G36" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16.5" thickBot="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1812,8 +1923,11 @@
       <c r="F37" s="9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G37" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="16.5" thickBot="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1832,8 +1946,11 @@
       <c r="F38" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G38" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" thickBot="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1852,8 +1969,11 @@
       <c r="F39" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G39" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16.5" thickBot="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1872,8 +1992,11 @@
       <c r="F40" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G40" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16.5" thickBot="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1892,8 +2015,11 @@
       <c r="F41" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G41" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16.5" thickBot="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1912,8 +2038,11 @@
       <c r="F42" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G42" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="16.5" thickBot="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1932,8 +2061,11 @@
       <c r="F43" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G43" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16.5" thickBot="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1952,11 +2084,14 @@
       <c r="F44" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="G44" s="1">
+        <v>43</v>
+      </c>
+      <c r="H44" s="18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16.5" thickBot="1">
+    <row r="45" spans="1:8" ht="16.5" thickBot="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1975,8 +2110,11 @@
       <c r="F45" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G45" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="16.5" thickBot="1">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1995,11 +2133,14 @@
       <c r="F46" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G46" s="1">
+        <v>45</v>
+      </c>
+      <c r="H46" s="18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16.5" thickBot="1">
+    <row r="47" spans="1:8" ht="16.5" thickBot="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2018,8 +2159,11 @@
       <c r="F47" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G47" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="16.5" thickBot="1">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2038,8 +2182,11 @@
       <c r="F48" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G48" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="16.5" thickBot="1">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2058,8 +2205,11 @@
       <c r="F49" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G49" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16.5" thickBot="1">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2078,8 +2228,11 @@
       <c r="F50" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G50" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16.5" thickBot="1">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2098,8 +2251,11 @@
       <c r="F51" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G51" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="16.5" thickBot="1">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2118,8 +2274,11 @@
       <c r="F52" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G52" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16.5" thickBot="1">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2138,8 +2297,11 @@
       <c r="F53" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G53" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16.5" thickBot="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2158,11 +2320,14 @@
       <c r="F54" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G54" s="18" t="s">
+      <c r="G54" s="1">
+        <v>53</v>
+      </c>
+      <c r="H54" s="18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="16.5" thickBot="1">
+    <row r="55" spans="1:8" ht="16.5" thickBot="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2181,8 +2346,11 @@
       <c r="F55" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G55" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="16.5" thickBot="1">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2201,11 +2369,14 @@
       <c r="F56" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G56" s="18" t="s">
+      <c r="G56" s="1">
+        <v>55</v>
+      </c>
+      <c r="H56" s="18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75" thickBot="1">
+    <row r="57" spans="1:8" ht="15.75" thickBot="1">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2224,8 +2395,11 @@
       <c r="F57" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" thickBot="1">
+      <c r="G57" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" thickBot="1">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2244,8 +2418,11 @@
       <c r="F58" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G58" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="16.5" thickBot="1">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2264,8 +2441,11 @@
       <c r="F59" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G59" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="16.5" thickBot="1">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2284,8 +2464,11 @@
       <c r="F60" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" thickBot="1">
+      <c r="G60" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" thickBot="1">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2304,8 +2487,11 @@
       <c r="F61" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G61" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="16.5" thickBot="1">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2324,8 +2510,11 @@
       <c r="F62" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G62" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="16.5" thickBot="1">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2344,8 +2533,11 @@
       <c r="F63" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G63" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="16.5" thickBot="1">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2364,8 +2556,11 @@
       <c r="F64" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G64" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="16.5" thickBot="1">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2384,8 +2579,11 @@
       <c r="F65" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G65" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="16.5" thickBot="1">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2404,8 +2602,11 @@
       <c r="F66" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G66" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="16.5" thickBot="1">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2424,8 +2625,11 @@
       <c r="F67" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G67" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="16.5" thickBot="1">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2444,8 +2648,11 @@
       <c r="F68" s="10" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G68" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="16.5" thickBot="1">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2464,8 +2671,11 @@
       <c r="F69" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G69" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="16.5" thickBot="1">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2484,8 +2694,11 @@
       <c r="F70" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G70" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="16.5" thickBot="1">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2504,8 +2717,11 @@
       <c r="F71" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G71" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="16.5" thickBot="1">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2524,8 +2740,11 @@
       <c r="F72" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G72" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="16.5" thickBot="1">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2544,11 +2763,14 @@
       <c r="F73" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G73" s="18" t="s">
+      <c r="G73" s="1">
+        <v>72</v>
+      </c>
+      <c r="H73" s="18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="16.5" thickBot="1">
+    <row r="74" spans="1:8" ht="16.5" thickBot="1">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2567,8 +2789,11 @@
       <c r="F74" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G74" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="16.5" thickBot="1">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2587,8 +2812,11 @@
       <c r="F75" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G75" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="16.5" thickBot="1">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2607,11 +2835,14 @@
       <c r="F76" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G76" s="18" t="s">
+      <c r="G76" s="1">
+        <v>75</v>
+      </c>
+      <c r="H76" s="18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="16.5" thickBot="1">
+    <row r="77" spans="1:8" ht="16.5" thickBot="1">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2630,8 +2861,11 @@
       <c r="F77" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G77" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="16.5" thickBot="1">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2650,8 +2884,11 @@
       <c r="F78" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G78" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="16.5" thickBot="1">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2670,8 +2907,11 @@
       <c r="F79" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G79" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="16.5" thickBot="1">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2690,8 +2930,11 @@
       <c r="F80" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G80" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="16.5" thickBot="1">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2710,8 +2953,11 @@
       <c r="F81" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G81" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="16.5" thickBot="1">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2730,8 +2976,11 @@
       <c r="F82" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G82" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="16.5" thickBot="1">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2750,8 +2999,11 @@
       <c r="F83" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G83" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="16.5" thickBot="1">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2770,8 +3022,11 @@
       <c r="F84" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G84" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="16.5" thickBot="1">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2790,8 +3045,11 @@
       <c r="F85" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G85" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="16.5" thickBot="1">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2810,8 +3068,11 @@
       <c r="F86" s="11" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G86" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="16.5" thickBot="1">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2830,11 +3091,14 @@
       <c r="F87" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="G87" s="18" t="s">
+      <c r="G87" s="1">
+        <v>86</v>
+      </c>
+      <c r="H87" s="18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="16.5" thickBot="1">
+    <row r="88" spans="1:8" ht="16.5" thickBot="1">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2853,8 +3117,11 @@
       <c r="F88" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G88" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="16.5" thickBot="1">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2873,8 +3140,11 @@
       <c r="F89" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G89" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="16.5" thickBot="1">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2893,8 +3163,11 @@
       <c r="F90" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="15.75" thickBot="1">
+      <c r="G90" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" thickBot="1">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2913,24 +3186,27 @@
       <c r="F91" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="15.75" thickBot="1">
+      <c r="G91" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" thickBot="1">
       <c r="C92" s="4"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="1:7" ht="16.5" thickBot="1">
+    <row r="93" spans="1:8" ht="16.5" thickBot="1">
       <c r="C93" s="11"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="1:7" ht="16.5" thickBot="1">
+    <row r="94" spans="1:8" ht="16.5" thickBot="1">
       <c r="C94" s="11"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="1:7" ht="16.5" thickBot="1">
+    <row r="95" spans="1:8" ht="16.5" thickBot="1">
       <c r="C95" s="11"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="1:7" ht="16.5" thickBot="1">
+    <row r="96" spans="1:8" ht="16.5" thickBot="1">
       <c r="C96" s="11"/>
       <c r="F96" s="4"/>
     </row>

--- a/server/zone-template/Zone_Template.xlsx
+++ b/server/zone-template/Zone_Template.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620"/>
   </bookViews>
   <sheets>
-    <sheet name="zone_template" sheetId="1" r:id="rId1"/>
+    <sheet name="zone_set_template" sheetId="2" r:id="rId1"/>
+    <sheet name="zone_template" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="195">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>zone_template</t>
-  </si>
-  <si>
     <t>zone_name</t>
   </si>
   <si>
@@ -606,6 +604,12 @@
   </si>
   <si>
     <t>order_num</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>id_zone_set_template</t>
   </si>
 </sst>
 </file>
@@ -1056,16 +1060,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M77" sqref="M77"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
@@ -1078,68 +1113,68 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>194</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>118</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>118</v>
+      <c r="B3" s="1">
+        <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1149,20 +1184,20 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>118</v>
+      <c r="B4" s="1">
+        <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -1172,20 +1207,20 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>118</v>
+      <c r="B5" s="1">
+        <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="G5" s="1">
         <v>4</v>
@@ -1195,20 +1230,20 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>118</v>
+      <c r="B6" s="1">
+        <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
@@ -1218,20 +1253,20 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>118</v>
+      <c r="B7" s="1">
+        <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1">
         <v>6</v>
@@ -1241,20 +1276,20 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>118</v>
+      <c r="B8" s="1">
+        <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="1">
         <v>7</v>
@@ -1264,20 +1299,20 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>118</v>
+      <c r="B9" s="1">
+        <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="G9" s="1">
         <v>8</v>
@@ -1287,20 +1322,20 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>118</v>
+      <c r="B10" s="1">
+        <v>1</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G10" s="1">
         <v>9</v>
@@ -1310,20 +1345,20 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>118</v>
+      <c r="B11" s="1">
+        <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="G11" s="1">
         <v>10</v>
@@ -1333,20 +1368,20 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>118</v>
+      <c r="B12" s="1">
+        <v>1</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="1">
         <v>11</v>
@@ -1356,20 +1391,20 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>118</v>
+      <c r="B13" s="1">
+        <v>1</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="1">
         <v>12</v>
@@ -1379,20 +1414,20 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>118</v>
+      <c r="B14" s="1">
+        <v>1</v>
       </c>
       <c r="C14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="G14" s="1">
         <v>13</v>
@@ -1402,20 +1437,20 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>118</v>
+      <c r="B15" s="1">
+        <v>1</v>
       </c>
       <c r="C15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" s="1">
         <v>14</v>
@@ -1425,20 +1460,20 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>118</v>
+      <c r="B16" s="1">
+        <v>1</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="G16" s="1">
         <v>15</v>
@@ -1448,20 +1483,20 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>118</v>
+      <c r="B17" s="1">
+        <v>1</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="G17" s="1">
         <v>16</v>
@@ -1471,20 +1506,20 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>118</v>
+      <c r="B18" s="1">
+        <v>1</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="G18" s="1">
         <v>17</v>
@@ -1494,20 +1529,20 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>118</v>
+      <c r="B19" s="1">
+        <v>1</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="G19" s="1">
         <v>18</v>
@@ -1517,20 +1552,20 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>118</v>
+      <c r="B20" s="1">
+        <v>1</v>
       </c>
       <c r="C20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" s="1">
         <v>19</v>
@@ -1540,20 +1575,20 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>118</v>
+      <c r="B21" s="1">
+        <v>1</v>
       </c>
       <c r="C21" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="G21" s="1">
         <v>20</v>
@@ -1563,20 +1598,20 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>118</v>
+      <c r="B22" s="1">
+        <v>1</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" s="1">
         <v>21</v>
@@ -1586,20 +1621,20 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>118</v>
+      <c r="B23" s="1">
+        <v>1</v>
       </c>
       <c r="C23" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="G23" s="1">
         <v>22</v>
@@ -1609,20 +1644,20 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>118</v>
+      <c r="B24" s="1">
+        <v>1</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G24" s="1">
         <v>23</v>
@@ -1632,20 +1667,20 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>118</v>
+      <c r="B25" s="1">
+        <v>1</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" s="1">
         <v>24</v>
@@ -1655,20 +1690,20 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>118</v>
+      <c r="B26" s="1">
+        <v>1</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G26" s="1">
         <v>25</v>
@@ -1678,20 +1713,20 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>118</v>
+      <c r="B27" s="1">
+        <v>1</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G27" s="1">
         <v>26</v>
@@ -1701,20 +1736,20 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>118</v>
+      <c r="B28" s="1">
+        <v>1</v>
       </c>
       <c r="C28" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="G28" s="1">
         <v>27</v>
@@ -1724,20 +1759,20 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>118</v>
+      <c r="B29" s="1">
+        <v>1</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G29" s="1">
         <v>28</v>
@@ -1747,20 +1782,20 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>119</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G30" s="1">
         <v>29</v>
@@ -1770,20 +1805,20 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>118</v>
+      <c r="B31" s="1">
+        <v>1</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="G31" s="1">
         <v>30</v>
@@ -1793,20 +1828,20 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>118</v>
+      <c r="B32" s="1">
+        <v>1</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="G32" s="1">
         <v>31</v>
@@ -1816,20 +1851,20 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>118</v>
+      <c r="B33" s="1">
+        <v>1</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G33" s="1">
         <v>32</v>
@@ -1839,20 +1874,20 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>118</v>
+      <c r="B34" s="1">
+        <v>1</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G34" s="1">
         <v>33</v>
@@ -1862,20 +1897,20 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>118</v>
+      <c r="B35" s="1">
+        <v>1</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G35" s="1">
         <v>34</v>
@@ -1885,20 +1920,20 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>118</v>
+      <c r="B36" s="1">
+        <v>1</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G36" s="1">
         <v>35</v>
@@ -1908,20 +1943,20 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>118</v>
+      <c r="B37" s="1">
+        <v>1</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="G37" s="1">
         <v>36</v>
@@ -1931,20 +1966,20 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>118</v>
+      <c r="B38" s="1">
+        <v>1</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G38" s="1">
         <v>37</v>
@@ -1954,20 +1989,20 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>118</v>
+      <c r="B39" s="1">
+        <v>1</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G39" s="1">
         <v>38</v>
@@ -1977,20 +2012,20 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>118</v>
+      <c r="B40" s="1">
+        <v>1</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="F40" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G40" s="1">
         <v>39</v>
@@ -2000,20 +2035,20 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>118</v>
+      <c r="B41" s="1">
+        <v>1</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="G41" s="1">
         <v>40</v>
@@ -2023,20 +2058,20 @@
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>118</v>
+      <c r="B42" s="1">
+        <v>1</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G42" s="1">
         <v>41</v>
@@ -2046,20 +2081,20 @@
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>118</v>
+      <c r="B43" s="1">
+        <v>1</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="E43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="G43" s="1">
         <v>42</v>
@@ -2069,46 +2104,46 @@
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>118</v>
+      <c r="B44" s="1">
+        <v>1</v>
       </c>
       <c r="C44" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G44" s="1">
         <v>43</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="16.5" thickBot="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>118</v>
+      <c r="B45" s="1">
+        <v>1</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G45" s="1">
         <v>44</v>
@@ -2118,46 +2153,46 @@
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>118</v>
+      <c r="B46" s="1">
+        <v>1</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G46" s="1">
         <v>45</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16.5" thickBot="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>118</v>
+      <c r="B47" s="1">
+        <v>1</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G47" s="1">
         <v>46</v>
@@ -2167,20 +2202,20 @@
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>118</v>
+      <c r="B48" s="1">
+        <v>1</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="G48" s="1">
         <v>47</v>
@@ -2190,20 +2225,20 @@
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>118</v>
+      <c r="B49" s="1">
+        <v>1</v>
       </c>
       <c r="C49" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G49" s="1">
         <v>48</v>
@@ -2213,20 +2248,20 @@
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>118</v>
+      <c r="B50" s="1">
+        <v>1</v>
       </c>
       <c r="C50" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="E50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="G50" s="1">
         <v>49</v>
@@ -2236,20 +2271,20 @@
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>118</v>
+      <c r="B51" s="1">
+        <v>1</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G51" s="1">
         <v>50</v>
@@ -2259,20 +2294,20 @@
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>118</v>
+      <c r="B52" s="1">
+        <v>1</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G52" s="1">
         <v>51</v>
@@ -2282,20 +2317,20 @@
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>118</v>
+      <c r="B53" s="1">
+        <v>1</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G53" s="1">
         <v>52</v>
@@ -2305,46 +2340,46 @@
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>118</v>
+      <c r="B54" s="1">
+        <v>1</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G54" s="1">
         <v>53</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="16.5" thickBot="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>118</v>
+      <c r="B55" s="1">
+        <v>1</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G55" s="1">
         <v>54</v>
@@ -2354,46 +2389,46 @@
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>118</v>
+      <c r="B56" s="1">
+        <v>1</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G56" s="1">
         <v>55</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>118</v>
+      <c r="B57" s="1">
+        <v>1</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G57" s="1">
         <v>56</v>
@@ -2403,20 +2438,20 @@
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>118</v>
+      <c r="B58" s="1">
+        <v>1</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G58" s="1">
         <v>57</v>
@@ -2426,20 +2461,20 @@
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>118</v>
+      <c r="B59" s="1">
+        <v>1</v>
       </c>
       <c r="C59" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="G59" s="1">
         <v>58</v>
@@ -2449,20 +2484,20 @@
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>118</v>
+      <c r="B60" s="1">
+        <v>1</v>
       </c>
       <c r="C60" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="G60" s="1">
         <v>59</v>
@@ -2472,20 +2507,20 @@
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>118</v>
+      <c r="B61" s="1">
+        <v>1</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G61" s="1">
         <v>60</v>
@@ -2495,20 +2530,20 @@
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>118</v>
+      <c r="B62" s="1">
+        <v>1</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G62" s="1">
         <v>61</v>
@@ -2518,20 +2553,20 @@
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>118</v>
+      <c r="B63" s="1">
+        <v>1</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G63" s="1">
         <v>62</v>
@@ -2541,20 +2576,20 @@
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>118</v>
+      <c r="B64" s="1">
+        <v>1</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G64" s="1">
         <v>63</v>
@@ -2564,20 +2599,20 @@
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>118</v>
+      <c r="B65" s="1">
+        <v>1</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="G65" s="1">
         <v>64</v>
@@ -2587,20 +2622,20 @@
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>118</v>
+      <c r="B66" s="1">
+        <v>1</v>
       </c>
       <c r="C66" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="E66" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G66" s="1">
         <v>65</v>
@@ -2610,20 +2645,20 @@
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>118</v>
+      <c r="B67" s="1">
+        <v>1</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="G67" s="1">
         <v>66</v>
@@ -2633,20 +2668,20 @@
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>118</v>
+      <c r="B68" s="1">
+        <v>1</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G68" s="1">
         <v>67</v>
@@ -2656,20 +2691,20 @@
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>118</v>
+      <c r="B69" s="1">
+        <v>1</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G69" s="1">
         <v>68</v>
@@ -2679,20 +2714,20 @@
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>118</v>
+      <c r="B70" s="1">
+        <v>1</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G70" s="1">
         <v>69</v>
@@ -2702,20 +2737,20 @@
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>118</v>
+      <c r="B71" s="1">
+        <v>1</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G71" s="1">
         <v>70</v>
@@ -2725,20 +2760,20 @@
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>118</v>
+      <c r="B72" s="1">
+        <v>1</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G72" s="1">
         <v>71</v>
@@ -2748,46 +2783,46 @@
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>118</v>
+      <c r="B73" s="1">
+        <v>1</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G73" s="1">
         <v>72</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="16.5" thickBot="1">
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>118</v>
+      <c r="B74" s="1">
+        <v>1</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G74" s="1">
         <v>73</v>
@@ -2797,20 +2832,20 @@
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>118</v>
+      <c r="B75" s="1">
+        <v>1</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G75" s="1">
         <v>74</v>
@@ -2820,46 +2855,46 @@
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>118</v>
+      <c r="B76" s="1">
+        <v>1</v>
       </c>
       <c r="C76" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="E76" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G76" s="1">
         <v>75</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="16.5" thickBot="1">
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>118</v>
+      <c r="B77" s="1">
+        <v>1</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G77" s="1">
         <v>76</v>
@@ -2869,20 +2904,20 @@
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>118</v>
+      <c r="B78" s="1">
+        <v>1</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G78" s="1">
         <v>77</v>
@@ -2892,20 +2927,20 @@
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>118</v>
+      <c r="B79" s="1">
+        <v>1</v>
       </c>
       <c r="C79" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="E79" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G79" s="1">
         <v>78</v>
@@ -2915,20 +2950,20 @@
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>118</v>
+      <c r="B80" s="1">
+        <v>1</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="G80" s="1">
         <v>79</v>
@@ -2938,20 +2973,20 @@
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>118</v>
+      <c r="B81" s="1">
+        <v>1</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G81" s="1">
         <v>80</v>
@@ -2961,20 +2996,20 @@
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>118</v>
+      <c r="B82" s="1">
+        <v>1</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G82" s="1">
         <v>81</v>
@@ -2984,20 +3019,20 @@
       <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>118</v>
+      <c r="B83" s="1">
+        <v>1</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83" s="1">
         <v>82</v>
@@ -3007,20 +3042,20 @@
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>118</v>
+      <c r="B84" s="1">
+        <v>1</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G84" s="1">
         <v>83</v>
@@ -3030,20 +3065,20 @@
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>118</v>
+      <c r="B85" s="1">
+        <v>1</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G85" s="1">
         <v>84</v>
@@ -3053,20 +3088,20 @@
       <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>118</v>
+      <c r="B86" s="1">
+        <v>1</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G86" s="1">
         <v>85</v>
@@ -3076,46 +3111,46 @@
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>118</v>
+      <c r="B87" s="1">
+        <v>1</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G87" s="1">
         <v>86</v>
       </c>
       <c r="H87" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="16.5" thickBot="1">
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>118</v>
+      <c r="B88" s="1">
+        <v>1</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G88" s="1">
         <v>87</v>
@@ -3125,20 +3160,20 @@
       <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>118</v>
+      <c r="B89" s="1">
+        <v>1</v>
       </c>
       <c r="C89" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="F89" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="G89" s="1">
         <v>88</v>
@@ -3148,20 +3183,20 @@
       <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>118</v>
+      <c r="B90" s="1">
+        <v>1</v>
       </c>
       <c r="C90" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="G90" s="1">
         <v>89</v>
@@ -3171,20 +3206,20 @@
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>118</v>
+      <c r="B91" s="1">
+        <v>1</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G91" s="1">
         <v>90</v>

--- a/server/zone-template/Zone_Template.xlsx
+++ b/server/zone-template/Zone_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a144471889379731/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\wi-backend\server\zone-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{06F5D89C-55C4-44B3-8277-D91ED95980AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{BA901D4A-0D9E-4B83-B81B-6E2B4DA42DB0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8516768A-94FB-4545-8D0A-84E47187BCF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zone_set_template" sheetId="2" r:id="rId1"/>
@@ -1263,13 +1263,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" style="7" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" style="7" bestFit="1" customWidth="1"/>
@@ -3648,10 +3648,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>91</v>
+        <v>10000</v>
       </c>
       <c r="B92" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>196</v>
@@ -3674,10 +3674,10 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>92</v>
+        <v>10001</v>
       </c>
       <c r="B93" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>200</v>
@@ -3700,10 +3700,10 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>93</v>
+        <v>10002</v>
       </c>
       <c r="B94" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>201</v>
@@ -3726,10 +3726,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>94</v>
+        <v>10003</v>
       </c>
       <c r="B95" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>202</v>
@@ -3752,10 +3752,10 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>95</v>
+        <v>10004</v>
       </c>
       <c r="B96" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>203</v>
@@ -3778,10 +3778,10 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>96</v>
+        <v>10005</v>
       </c>
       <c r="B97" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>204</v>
@@ -3804,10 +3804,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>97</v>
+        <v>10006</v>
       </c>
       <c r="B98" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>205</v>
@@ -3830,10 +3830,10 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>98</v>
+        <v>10007</v>
       </c>
       <c r="B99" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>206</v>
@@ -3856,10 +3856,10 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>99</v>
+        <v>10008</v>
       </c>
       <c r="B100" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>207</v>
@@ -3882,10 +3882,10 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>100</v>
+        <v>10009</v>
       </c>
       <c r="B101" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>208</v>
@@ -3908,10 +3908,10 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>101</v>
+        <v>10010</v>
       </c>
       <c r="B102" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>209</v>
@@ -3934,10 +3934,10 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>102</v>
+        <v>10011</v>
       </c>
       <c r="B103" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>210</v>
@@ -3960,10 +3960,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>103</v>
+        <v>10012</v>
       </c>
       <c r="B104" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>211</v>
@@ -3986,10 +3986,10 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>104</v>
+        <v>10013</v>
       </c>
       <c r="B105" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>212</v>
@@ -4012,10 +4012,10 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>105</v>
+        <v>10014</v>
       </c>
       <c r="B106" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>213</v>
@@ -4038,10 +4038,10 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>106</v>
+        <v>10015</v>
       </c>
       <c r="B107" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>214</v>
@@ -4064,10 +4064,10 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>107</v>
+        <v>10016</v>
       </c>
       <c r="B108" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>215</v>
@@ -4090,10 +4090,10 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>108</v>
+        <v>10017</v>
       </c>
       <c r="B109" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>216</v>
@@ -4116,10 +4116,10 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>109</v>
+        <v>10018</v>
       </c>
       <c r="B110" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>217</v>
@@ -4142,10 +4142,10 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>110</v>
+        <v>10019</v>
       </c>
       <c r="B111" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>218</v>
@@ -4168,10 +4168,10 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>111</v>
+        <v>10020</v>
       </c>
       <c r="B112" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>219</v>
@@ -4194,10 +4194,10 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>112</v>
+        <v>10021</v>
       </c>
       <c r="B113" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>220</v>
@@ -4220,10 +4220,10 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>113</v>
+        <v>10022</v>
       </c>
       <c r="B114" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>221</v>
@@ -4246,10 +4246,10 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>114</v>
+        <v>10023</v>
       </c>
       <c r="B115" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>222</v>
@@ -4272,10 +4272,10 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>115</v>
+        <v>10024</v>
       </c>
       <c r="B116" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>223</v>
@@ -4298,10 +4298,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>116</v>
+        <v>10025</v>
       </c>
       <c r="B117" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>224</v>
@@ -4324,10 +4324,10 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>117</v>
+        <v>10026</v>
       </c>
       <c r="B118" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>225</v>
@@ -4350,10 +4350,10 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>118</v>
+        <v>10027</v>
       </c>
       <c r="B119" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>226</v>
@@ -4376,10 +4376,10 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>119</v>
+        <v>10028</v>
       </c>
       <c r="B120" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>227</v>
@@ -4402,10 +4402,10 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>120</v>
+        <v>10029</v>
       </c>
       <c r="B121" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>228</v>
@@ -4428,10 +4428,10 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>121</v>
+        <v>10030</v>
       </c>
       <c r="B122" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>229</v>
@@ -4454,10 +4454,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>122</v>
+        <v>10031</v>
       </c>
       <c r="B123" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>230</v>
@@ -4480,10 +4480,10 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>123</v>
+        <v>10032</v>
       </c>
       <c r="B124" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>231</v>
@@ -4506,10 +4506,10 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>124</v>
+        <v>10033</v>
       </c>
       <c r="B125" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>232</v>
@@ -4532,10 +4532,10 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>125</v>
+        <v>10034</v>
       </c>
       <c r="B126" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>233</v>
@@ -4558,10 +4558,10 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>126</v>
+        <v>10035</v>
       </c>
       <c r="B127" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>234</v>

--- a/server/zone-template/Zone_Template.xlsx
+++ b/server/zone-template/Zone_Template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\wi-backend\server\zone-template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working_space\wi-backend\server\zone-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8516768A-94FB-4545-8D0A-84E47187BCF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="zone_set_template" sheetId="2" r:id="rId1"/>
@@ -844,7 +843,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1218,11 +1217,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,7 +1247,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="B3" t="s">
         <v>195</v>
@@ -1260,10 +1259,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
